--- a/raw_data/20200818_saline/20200818_Sensor1_Test_38.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_38.xlsx
@@ -1,6177 +1,6593 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8DD202-EC0C-4A9E-B0DB-7CCFCEA477CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>33487.414992</v>
+        <v>33487.414991999998</v>
       </c>
       <c r="B2" s="1">
-        <v>9.302060</v>
+        <v>9.3020600000000009</v>
       </c>
       <c r="C2" s="1">
-        <v>897.053000</v>
+        <v>897.053</v>
       </c>
       <c r="D2" s="1">
-        <v>-187.039000</v>
+        <v>-187.03899999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>33497.514818</v>
+        <v>33497.514818000003</v>
       </c>
       <c r="G2" s="1">
-        <v>9.304865</v>
+        <v>9.3048649999999995</v>
       </c>
       <c r="H2" s="1">
-        <v>914.383000</v>
+        <v>914.38300000000004</v>
       </c>
       <c r="I2" s="1">
-        <v>-160.868000</v>
+        <v>-160.86799999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>33507.982633</v>
       </c>
       <c r="L2" s="1">
-        <v>9.307773</v>
+        <v>9.3077729999999992</v>
       </c>
       <c r="M2" s="1">
-        <v>939.731000</v>
+        <v>939.73099999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.175000</v>
+        <v>-118.175</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>33518.492367</v>
+        <v>33518.492366999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>9.310692</v>
+        <v>9.3106919999999995</v>
       </c>
       <c r="R2" s="1">
-        <v>947.660000</v>
+        <v>947.66</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.004000</v>
+        <v>-103.004</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>33529.023386</v>
+        <v>33529.023386000001</v>
       </c>
       <c r="V2" s="1">
         <v>9.313618</v>
       </c>
       <c r="W2" s="1">
-        <v>955.511000</v>
+        <v>955.51099999999997</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.532300</v>
+        <v>-88.532300000000006</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>33539.415068</v>
+        <v>33539.415068000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>9.316504</v>
+        <v>9.3165040000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>963.639000</v>
+        <v>963.63900000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.199400</v>
+        <v>-77.199399999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>33549.964510</v>
+        <v>33549.964509999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>9.319435</v>
+        <v>9.3194350000000004</v>
       </c>
       <c r="AG2" s="1">
-        <v>968.773000</v>
+        <v>968.77300000000002</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.939900</v>
+        <v>-74.939899999999994</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>33560.398359</v>
+        <v>33560.398358999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>9.322333</v>
+        <v>9.3223330000000004</v>
       </c>
       <c r="AL2" s="1">
-        <v>976.294000</v>
+        <v>976.29399999999998</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.624800</v>
+        <v>-79.624799999999993</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>33570.624734</v>
+        <v>33570.624733999997</v>
       </c>
       <c r="AP2" s="1">
-        <v>9.325174</v>
+        <v>9.3251740000000005</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.473000</v>
+        <v>984.47299999999996</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.015500</v>
+        <v>-91.015500000000003</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>33581.959908</v>
+        <v>33581.959907999997</v>
       </c>
       <c r="AU2" s="1">
         <v>9.328322</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.351000</v>
+        <v>994.351</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.503000</v>
+        <v>-108.503</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>33592.780629</v>
+        <v>33592.780629000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>9.331328</v>
+        <v>9.3313279999999992</v>
       </c>
       <c r="BA2" s="1">
-        <v>1002.590000</v>
+        <v>1002.59</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.066000</v>
+        <v>-124.066</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>33603.504137</v>
+        <v>33603.504137000004</v>
       </c>
       <c r="BE2" s="1">
-        <v>9.334307</v>
+        <v>9.3343070000000008</v>
       </c>
       <c r="BF2" s="1">
-        <v>1040.920000</v>
+        <v>1040.92</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.667000</v>
+        <v>-195.667</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>33614.111113</v>
+        <v>33614.111112999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>9.337253</v>
+        <v>9.3372530000000005</v>
       </c>
       <c r="BK2" s="1">
-        <v>1106.850000</v>
+        <v>1106.8499999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-312.222000</v>
+        <v>-312.22199999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>33624.465595</v>
+        <v>33624.465595000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>9.340129</v>
+        <v>9.3401289999999992</v>
       </c>
       <c r="BP2" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-496.699000</v>
+        <v>-496.69900000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>33635.203453</v>
+        <v>33635.203453000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>9.343112</v>
+        <v>9.3431119999999996</v>
       </c>
       <c r="BU2" s="1">
-        <v>1334.600000</v>
+        <v>1334.6</v>
       </c>
       <c r="BV2" s="1">
-        <v>-699.576000</v>
+        <v>-699.57600000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>33646.662032</v>
       </c>
       <c r="BY2" s="1">
-        <v>9.346295</v>
+        <v>9.3462949999999996</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1470.500000</v>
+        <v>1470.5</v>
       </c>
       <c r="CA2" s="1">
-        <v>-916.565000</v>
+        <v>-916.56500000000005</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>33657.616673</v>
+        <v>33657.616672999997</v>
       </c>
       <c r="CD2" s="1">
-        <v>9.349338</v>
+        <v>9.3493379999999995</v>
       </c>
       <c r="CE2" s="1">
-        <v>1827.830000</v>
+        <v>1827.83</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1431.480000</v>
+        <v>-1431.48</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>33487.803857</v>
+        <v>33487.803856999999</v>
       </c>
       <c r="B3" s="1">
         <v>9.302168</v>
       </c>
       <c r="C3" s="1">
-        <v>896.833000</v>
+        <v>896.83299999999997</v>
       </c>
       <c r="D3" s="1">
-        <v>-186.959000</v>
+        <v>-186.959</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>33497.897940</v>
+        <v>33497.897940000003</v>
       </c>
       <c r="G3" s="1">
-        <v>9.304972</v>
+        <v>9.3049719999999994</v>
       </c>
       <c r="H3" s="1">
-        <v>914.465000</v>
+        <v>914.46500000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-161.046000</v>
+        <v>-161.04599999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>33508.364518</v>
+        <v>33508.364518000002</v>
       </c>
       <c r="L3" s="1">
-        <v>9.307879</v>
+        <v>9.3078789999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>939.652000</v>
+        <v>939.65200000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-117.851000</v>
+        <v>-117.851</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>33519.228390</v>
+        <v>33519.228389999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>9.310897</v>
+        <v>9.3108970000000006</v>
       </c>
       <c r="R3" s="1">
-        <v>947.680000</v>
+        <v>947.68</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.980000</v>
+        <v>-102.98</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>33529.370587</v>
+        <v>33529.370586999998</v>
       </c>
       <c r="V3" s="1">
-        <v>9.313714</v>
+        <v>9.3137139999999992</v>
       </c>
       <c r="W3" s="1">
-        <v>955.511000</v>
+        <v>955.51099999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.496000</v>
+        <v>-88.495999999999995</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>33539.751362</v>
+        <v>33539.751362000003</v>
       </c>
       <c r="AA3" s="1">
-        <v>9.316598</v>
+        <v>9.3165980000000008</v>
       </c>
       <c r="AB3" s="1">
-        <v>963.634000</v>
+        <v>963.63400000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.307600</v>
+        <v>-77.307599999999994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>33550.323616</v>
+        <v>33550.323616000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>9.319534</v>
+        <v>9.3195340000000009</v>
       </c>
       <c r="AG3" s="1">
-        <v>968.801000</v>
+        <v>968.80100000000004</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.938900</v>
+        <v>-74.938900000000004</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>33560.778255</v>
+        <v>33560.778254999997</v>
       </c>
       <c r="AK3" s="1">
         <v>9.322438</v>
       </c>
       <c r="AL3" s="1">
-        <v>976.282000</v>
+        <v>976.28200000000004</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.598700</v>
+        <v>-79.598699999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>33571.325187</v>
+        <v>33571.325187000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>9.325368</v>
+        <v>9.3253679999999992</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.462000</v>
+        <v>984.46199999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.030000</v>
+        <v>-91.03</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>33582.069559</v>
+        <v>33582.069559000003</v>
       </c>
       <c r="AU3" s="1">
-        <v>9.328353</v>
+        <v>9.3283529999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.345000</v>
+        <v>994.34500000000003</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.467000</v>
+        <v>-108.467</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>33593.190324</v>
+        <v>33593.190324000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>9.331442</v>
+        <v>9.3314419999999991</v>
       </c>
       <c r="BA3" s="1">
-        <v>1002.600000</v>
+        <v>1002.6</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.057000</v>
+        <v>-124.057</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>33603.867704</v>
+        <v>33603.867703999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>9.334408</v>
+        <v>9.3344079999999998</v>
       </c>
       <c r="BF3" s="1">
-        <v>1040.920000</v>
+        <v>1040.92</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.677000</v>
+        <v>-195.67699999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>33614.507421</v>
+        <v>33614.507421000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>9.337363</v>
+        <v>9.3373629999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1106.830000</v>
+        <v>1106.83</v>
       </c>
       <c r="BL3" s="1">
-        <v>-312.266000</v>
+        <v>-312.26600000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>33624.868821</v>
+        <v>33624.868820999996</v>
       </c>
       <c r="BO3" s="1">
-        <v>9.340241</v>
+        <v>9.3402410000000007</v>
       </c>
       <c r="BP3" s="1">
-        <v>1213.900000</v>
+        <v>1213.9000000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-496.740000</v>
+        <v>-496.74</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>33635.648365</v>
+        <v>33635.648365000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>9.343236</v>
+        <v>9.3432359999999992</v>
       </c>
       <c r="BU3" s="1">
-        <v>1334.640000</v>
+        <v>1334.64</v>
       </c>
       <c r="BV3" s="1">
-        <v>-699.592000</v>
+        <v>-699.59199999999998</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>33646.832189</v>
+        <v>33646.832189000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>9.346342</v>
+        <v>9.3463419999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1470.490000</v>
+        <v>1470.49</v>
       </c>
       <c r="CA3" s="1">
-        <v>-916.617000</v>
+        <v>-916.61699999999996</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>33657.909839</v>
       </c>
       <c r="CD3" s="1">
-        <v>9.349419</v>
+        <v>9.3494189999999993</v>
       </c>
       <c r="CE3" s="1">
-        <v>1826.940000</v>
+        <v>1826.94</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1432.350000</v>
+        <v>-1432.35</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>33488.147618</v>
+        <v>33488.147618000003</v>
       </c>
       <c r="B4" s="1">
-        <v>9.302263</v>
+        <v>9.3022629999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>896.906000</v>
+        <v>896.90599999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>-186.937000</v>
+        <v>-186.93700000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>33498.586386</v>
+        <v>33498.586386000003</v>
       </c>
       <c r="G4" s="1">
-        <v>9.305163</v>
+        <v>9.3051630000000003</v>
       </c>
       <c r="H4" s="1">
-        <v>914.424000</v>
+        <v>914.42399999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>-160.835000</v>
+        <v>-160.83500000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>33509.053957</v>
+        <v>33509.053956999996</v>
       </c>
       <c r="L4" s="1">
         <v>9.308071</v>
       </c>
       <c r="M4" s="1">
-        <v>939.721000</v>
+        <v>939.721</v>
       </c>
       <c r="N4" s="1">
-        <v>-117.856000</v>
+        <v>-117.85599999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>33519.579353</v>
+        <v>33519.579353000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>9.310994</v>
+        <v>9.3109940000000009</v>
       </c>
       <c r="R4" s="1">
-        <v>947.721000</v>
+        <v>947.721</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.930000</v>
+        <v>-102.93</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>33529.716297</v>
+        <v>33529.716296999999</v>
       </c>
       <c r="V4" s="1">
-        <v>9.313810</v>
+        <v>9.3138100000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>955.505000</v>
+        <v>955.505</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.508300</v>
+        <v>-88.508300000000006</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>33540.100044</v>
+        <v>33540.100043999999</v>
       </c>
       <c r="AA4" s="1">
         <v>9.316694</v>
       </c>
       <c r="AB4" s="1">
-        <v>963.671000</v>
+        <v>963.67100000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.135400</v>
+        <v>-77.135400000000004</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>33550.984284</v>
+        <v>33550.984283999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>9.319718</v>
+        <v>9.3197179999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>968.812000</v>
+        <v>968.81200000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.986200</v>
+        <v>-74.986199999999997</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>33561.271286</v>
+        <v>33561.271286000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>9.322575</v>
+        <v>9.3225750000000005</v>
       </c>
       <c r="AL4" s="1">
-        <v>976.282000</v>
+        <v>976.28200000000004</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.590700</v>
+        <v>-79.590699999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>33571.743321</v>
+        <v>33571.743321000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>9.325484</v>
+        <v>9.3254839999999994</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.465000</v>
+        <v>984.46500000000003</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.046500</v>
+        <v>-91.046499999999995</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>33582.434611</v>
+        <v>33582.434610999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>9.328454</v>
+        <v>9.3284540000000007</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.348000</v>
+        <v>994.34799999999996</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.473000</v>
+        <v>-108.473</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>33593.546948</v>
+        <v>33593.546948000003</v>
       </c>
       <c r="AZ4" s="1">
-        <v>9.331541</v>
+        <v>9.3315409999999996</v>
       </c>
       <c r="BA4" s="1">
-        <v>1002.600000</v>
+        <v>1002.6</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.042000</v>
+        <v>-124.042</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>33604.231270</v>
+        <v>33604.231269999997</v>
       </c>
       <c r="BE4" s="1">
-        <v>9.334509</v>
+        <v>9.3345090000000006</v>
       </c>
       <c r="BF4" s="1">
-        <v>1040.920000</v>
+        <v>1040.92</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.662000</v>
+        <v>-195.66200000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>33614.923065</v>
+        <v>33614.923065000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>9.337479</v>
+        <v>9.3374790000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1106.830000</v>
+        <v>1106.83</v>
       </c>
       <c r="BL4" s="1">
-        <v>-312.280000</v>
+        <v>-312.27999999999997</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>33625.289947</v>
+        <v>33625.289946999997</v>
       </c>
       <c r="BO4" s="1">
-        <v>9.340358</v>
+        <v>9.3403580000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1213.920000</v>
+        <v>1213.92</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-496.753000</v>
+        <v>-496.75299999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>33636.071948</v>
+        <v>33636.071947999997</v>
       </c>
       <c r="BT4" s="1">
-        <v>9.343353</v>
+        <v>9.3433530000000005</v>
       </c>
       <c r="BU4" s="1">
-        <v>1334.600000</v>
+        <v>1334.6</v>
       </c>
       <c r="BV4" s="1">
-        <v>-699.567000</v>
+        <v>-699.56700000000001</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>33647.267150</v>
+        <v>33647.26715</v>
       </c>
       <c r="BY4" s="1">
         <v>9.346463</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1470.470000</v>
+        <v>1470.47</v>
       </c>
       <c r="CA4" s="1">
-        <v>-916.685000</v>
+        <v>-916.68499999999995</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>33658.424655</v>
+        <v>33658.424655000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>9.349562</v>
+        <v>9.3495620000000006</v>
       </c>
       <c r="CE4" s="1">
-        <v>1827.530000</v>
+        <v>1827.53</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1433.520000</v>
+        <v>-1433.52</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>33488.832062</v>
+        <v>33488.832062000001</v>
       </c>
       <c r="B5" s="1">
-        <v>9.302453</v>
+        <v>9.3024529999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>897.119000</v>
+        <v>897.11900000000003</v>
       </c>
       <c r="D5" s="1">
-        <v>-187.002000</v>
+        <v>-187.00200000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>33498.929122</v>
+        <v>33498.929122000001</v>
       </c>
       <c r="G5" s="1">
-        <v>9.305258</v>
+        <v>9.3052580000000003</v>
       </c>
       <c r="H5" s="1">
-        <v>914.728000</v>
+        <v>914.72799999999995</v>
       </c>
       <c r="I5" s="1">
-        <v>-161.229000</v>
+        <v>-161.22900000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>33509.398675</v>
+        <v>33509.398674999997</v>
       </c>
       <c r="L5" s="1">
-        <v>9.308166</v>
+        <v>9.3081659999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>939.785000</v>
+        <v>939.78499999999997</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.053000</v>
+        <v>-118.053</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>33519.927253</v>
+        <v>33519.927253000002</v>
       </c>
       <c r="Q5" s="1">
-        <v>9.311091</v>
+        <v>9.3110909999999993</v>
       </c>
       <c r="R5" s="1">
-        <v>947.746000</v>
+        <v>947.74599999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.943000</v>
+        <v>-102.943</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>33530.365592</v>
+        <v>33530.365592000002</v>
       </c>
       <c r="V5" s="1">
-        <v>9.313990</v>
+        <v>9.3139900000000004</v>
       </c>
       <c r="W5" s="1">
-        <v>955.504000</v>
+        <v>955.50400000000002</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.515700</v>
+        <v>-88.515699999999995</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>33540.757243</v>
       </c>
       <c r="AA5" s="1">
-        <v>9.316877</v>
+        <v>9.3168769999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>963.673000</v>
+        <v>963.673</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.122400</v>
+        <v>-77.122399999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>33551.351293</v>
       </c>
       <c r="AF5" s="1">
-        <v>9.319820</v>
+        <v>9.31982</v>
       </c>
       <c r="AG5" s="1">
-        <v>968.831000</v>
+        <v>968.83100000000002</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.979900</v>
+        <v>-74.979900000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>33561.473152</v>
+        <v>33561.473151999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>9.322631</v>
+        <v>9.3226309999999994</v>
       </c>
       <c r="AL5" s="1">
-        <v>976.260000</v>
+        <v>976.26</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.587300</v>
+        <v>-79.587299999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>33572.131221</v>
+        <v>33572.131221000003</v>
       </c>
       <c r="AP5" s="1">
-        <v>9.325592</v>
+        <v>9.3255920000000003</v>
       </c>
       <c r="AQ5" s="1">
-        <v>984.488000</v>
+        <v>984.48800000000006</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.029200</v>
+        <v>-91.029200000000003</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>33582.800131</v>
+        <v>33582.800131000004</v>
       </c>
       <c r="AU5" s="1">
-        <v>9.328556</v>
+        <v>9.3285560000000007</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.354000</v>
+        <v>994.35400000000004</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.491000</v>
+        <v>-108.491</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>33593.904595</v>
       </c>
       <c r="AZ5" s="1">
-        <v>9.331640</v>
+        <v>9.3316400000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1002.610000</v>
+        <v>1002.61</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.054000</v>
+        <v>-124.054</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>33604.639015</v>
+        <v>33604.639015000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>9.334622</v>
+        <v>9.3346219999999995</v>
       </c>
       <c r="BF5" s="1">
-        <v>1040.940000</v>
+        <v>1040.94</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.676000</v>
+        <v>-195.67599999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>33615.257368</v>
+        <v>33615.257367999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>9.337571</v>
+        <v>9.3375710000000005</v>
       </c>
       <c r="BK5" s="1">
-        <v>1106.840000</v>
+        <v>1106.8399999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-312.247000</v>
+        <v>-312.24700000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>33625.690681</v>
       </c>
       <c r="BO5" s="1">
-        <v>9.340470</v>
+        <v>9.3404699999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-496.754000</v>
+        <v>-496.75400000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>33636.507470</v>
+        <v>33636.507469999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>9.343474</v>
+        <v>9.3434740000000005</v>
       </c>
       <c r="BU5" s="1">
-        <v>1334.640000</v>
+        <v>1334.64</v>
       </c>
       <c r="BV5" s="1">
-        <v>-699.599000</v>
+        <v>-699.59900000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>33647.687757</v>
       </c>
       <c r="BY5" s="1">
-        <v>9.346580</v>
+        <v>9.3465799999999994</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1470.490000</v>
+        <v>1470.49</v>
       </c>
       <c r="CA5" s="1">
-        <v>-916.748000</v>
+        <v>-916.74800000000005</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>33658.941517</v>
+        <v>33658.941516999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>9.349706</v>
+        <v>9.3497059999999994</v>
       </c>
       <c r="CE5" s="1">
-        <v>1828.970000</v>
+        <v>1828.97</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1432.640000</v>
+        <v>-1432.64</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>33489.172814</v>
+        <v>33489.172813999998</v>
       </c>
       <c r="B6" s="1">
-        <v>9.302548</v>
+        <v>9.3025479999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>896.841000</v>
+        <v>896.84100000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-186.742000</v>
+        <v>-186.74199999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>33499.273345</v>
+        <v>33499.273345000001</v>
       </c>
       <c r="G6" s="1">
-        <v>9.305354</v>
+        <v>9.3053539999999995</v>
       </c>
       <c r="H6" s="1">
-        <v>914.430000</v>
+        <v>914.43</v>
       </c>
       <c r="I6" s="1">
-        <v>-161.100000</v>
+        <v>-161.1</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>33509.754307</v>
+        <v>33509.754307000003</v>
       </c>
       <c r="L6" s="1">
-        <v>9.308265</v>
+        <v>9.3082650000000005</v>
       </c>
       <c r="M6" s="1">
-        <v>939.916000</v>
+        <v>939.91600000000005</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.087000</v>
+        <v>-118.087</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>33520.584966</v>
+        <v>33520.584966000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>9.311274</v>
+        <v>9.3112739999999992</v>
       </c>
       <c r="R6" s="1">
-        <v>947.721000</v>
+        <v>947.721</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.958000</v>
+        <v>-102.958</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>33530.748471</v>
+        <v>33530.748470999999</v>
       </c>
       <c r="V6" s="1">
-        <v>9.314097</v>
+        <v>9.3140970000000003</v>
       </c>
       <c r="W6" s="1">
-        <v>955.566000</v>
+        <v>955.56600000000003</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.517200</v>
+        <v>-88.517200000000003</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>33541.143140</v>
+        <v>33541.14314</v>
       </c>
       <c r="AA6" s="1">
-        <v>9.316984</v>
+        <v>9.3169839999999997</v>
       </c>
       <c r="AB6" s="1">
-        <v>963.774000</v>
+        <v>963.774</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.190100</v>
+        <v>-77.190100000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>33551.701004</v>
+        <v>33551.701004000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>9.319917</v>
+        <v>9.3199170000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>968.815000</v>
+        <v>968.81500000000005</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.001200</v>
+        <v>-75.001199999999997</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>33561.820848</v>
+        <v>33561.820848000003</v>
       </c>
       <c r="AK6" s="1">
-        <v>9.322728</v>
+        <v>9.3227279999999997</v>
       </c>
       <c r="AL6" s="1">
-        <v>976.291000</v>
+        <v>976.29100000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.628900</v>
+        <v>-79.628900000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>33572.513104</v>
+        <v>33572.513103999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>9.325698</v>
+        <v>9.3256979999999992</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.448000</v>
+        <v>984.44799999999998</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.056300</v>
+        <v>-91.056299999999993</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>33583.219748</v>
+        <v>33583.219748000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>9.328672</v>
+        <v>9.3286719999999992</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.362000</v>
+        <v>994.36199999999997</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.490000</v>
+        <v>-108.49</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>33594.399075</v>
+        <v>33594.399075000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>9.331778</v>
+        <v>9.3317779999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1002.610000</v>
+        <v>1002.61</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.061000</v>
+        <v>-124.06100000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>33604.951993</v>
+        <v>33604.951993000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>9.334709</v>
+        <v>9.3347090000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1040.910000</v>
+        <v>1040.9100000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.680000</v>
+        <v>-195.68</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>33615.630823</v>
       </c>
       <c r="BJ6" s="1">
-        <v>9.337675</v>
+        <v>9.3376750000000008</v>
       </c>
       <c r="BK6" s="1">
-        <v>1106.830000</v>
+        <v>1106.83</v>
       </c>
       <c r="BL6" s="1">
-        <v>-312.236000</v>
+        <v>-312.23599999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>33626.110793</v>
       </c>
       <c r="BO6" s="1">
-        <v>9.340586</v>
+        <v>9.3405860000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1213.930000</v>
+        <v>1213.93</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-496.754000</v>
+        <v>-496.75400000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>33636.923083</v>
+        <v>33636.923083000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>9.343590</v>
+        <v>9.3435900000000007</v>
       </c>
       <c r="BU6" s="1">
-        <v>1334.750000</v>
+        <v>1334.75</v>
       </c>
       <c r="BV6" s="1">
-        <v>-699.519000</v>
+        <v>-699.51900000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>33648.113325</v>
+        <v>33648.113324999998</v>
       </c>
       <c r="BY6" s="1">
         <v>9.346698</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1470.570000</v>
+        <v>1470.57</v>
       </c>
       <c r="CA6" s="1">
-        <v>-916.735000</v>
+        <v>-916.73500000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>33659.460798</v>
       </c>
       <c r="CD6" s="1">
-        <v>9.349850</v>
+        <v>9.34985</v>
       </c>
       <c r="CE6" s="1">
-        <v>1828.560000</v>
+        <v>1828.56</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1432.860000</v>
+        <v>-1432.86</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>33489.514557</v>
+        <v>33489.514557000002</v>
       </c>
       <c r="B7" s="1">
-        <v>9.302643</v>
+        <v>9.3026429999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>896.776000</v>
+        <v>896.77599999999995</v>
       </c>
       <c r="D7" s="1">
-        <v>-186.823000</v>
+        <v>-186.82300000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>33499.934018</v>
       </c>
       <c r="G7" s="1">
-        <v>9.305537</v>
+        <v>9.3055369999999993</v>
       </c>
       <c r="H7" s="1">
-        <v>914.630000</v>
+        <v>914.63</v>
       </c>
       <c r="I7" s="1">
-        <v>-160.717000</v>
+        <v>-160.71700000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>33510.409523</v>
+        <v>33510.409523000002</v>
       </c>
       <c r="L7" s="1">
-        <v>9.308447</v>
+        <v>9.3084469999999992</v>
       </c>
       <c r="M7" s="1">
-        <v>939.850000</v>
+        <v>939.85</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.130000</v>
+        <v>-118.13</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>33520.972325</v>
+        <v>33520.972325000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>9.311381</v>
+        <v>9.3113810000000008</v>
       </c>
       <c r="R7" s="1">
-        <v>947.694000</v>
+        <v>947.69399999999996</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.963000</v>
+        <v>-102.96299999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>33531.098183</v>
+        <v>33531.098183000002</v>
       </c>
       <c r="V7" s="1">
-        <v>9.314194</v>
+        <v>9.3141940000000005</v>
       </c>
       <c r="W7" s="1">
-        <v>955.468000</v>
+        <v>955.46799999999996</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.500000</v>
+        <v>-88.5</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>33541.495786</v>
+        <v>33541.495785999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>9.317082</v>
+        <v>9.3170819999999992</v>
       </c>
       <c r="AB7" s="1">
-        <v>963.646000</v>
+        <v>963.64599999999996</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.268100</v>
+        <v>-77.268100000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>33552.040764</v>
+        <v>33552.040763999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>9.320011</v>
+        <v>9.3200109999999992</v>
       </c>
       <c r="AG7" s="1">
-        <v>968.798000</v>
+        <v>968.798</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.937200</v>
+        <v>-74.937200000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>33562.245953</v>
+        <v>33562.245952999998</v>
       </c>
       <c r="AK7" s="1">
-        <v>9.322846</v>
+        <v>9.3228460000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>976.270000</v>
+        <v>976.27</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.600900</v>
+        <v>-79.600899999999996</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>33572.931231</v>
+        <v>33572.931231000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>9.325814</v>
+        <v>9.3258139999999994</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.444000</v>
+        <v>984.44399999999996</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.025600</v>
+        <v>-91.025599999999997</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>33583.529251</v>
       </c>
       <c r="AU7" s="1">
-        <v>9.328758</v>
+        <v>9.3287580000000005</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.353000</v>
+        <v>994.35299999999995</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.497000</v>
+        <v>-108.497</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>33594.627235</v>
       </c>
       <c r="AZ7" s="1">
-        <v>9.331841</v>
+        <v>9.3318410000000007</v>
       </c>
       <c r="BA7" s="1">
-        <v>1002.600000</v>
+        <v>1002.6</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.048000</v>
+        <v>-124.048</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>33605.315525</v>
+        <v>33605.315524999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>9.334810</v>
+        <v>9.3348099999999992</v>
       </c>
       <c r="BF7" s="1">
-        <v>1040.930000</v>
+        <v>1040.93</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.666000</v>
+        <v>-195.666</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>33616.030599</v>
+        <v>33616.030598999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>9.337786</v>
+        <v>9.3377859999999995</v>
       </c>
       <c r="BK7" s="1">
-        <v>1106.850000</v>
+        <v>1106.8499999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-312.249000</v>
+        <v>-312.24900000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>33626.509082</v>
+        <v>33626.509081999997</v>
       </c>
       <c r="BO7" s="1">
-        <v>9.340697</v>
+        <v>9.3406970000000005</v>
       </c>
       <c r="BP7" s="1">
-        <v>1213.940000</v>
+        <v>1213.94</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-496.721000</v>
+        <v>-496.721</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>33637.352651</v>
+        <v>33637.352651000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>9.343709</v>
+        <v>9.3437090000000005</v>
       </c>
       <c r="BU7" s="1">
-        <v>1334.790000</v>
+        <v>1334.79</v>
       </c>
       <c r="BV7" s="1">
-        <v>-699.553000</v>
+        <v>-699.553</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>33648.556287</v>
+        <v>33648.556286999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>9.346821</v>
+        <v>9.3468210000000003</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1470.520000</v>
+        <v>1470.52</v>
       </c>
       <c r="CA7" s="1">
-        <v>-916.678000</v>
+        <v>-916.678</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>33660.013836</v>
+        <v>33660.013835999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>9.350004</v>
+        <v>9.3500040000000002</v>
       </c>
       <c r="CE7" s="1">
-        <v>1827.660000</v>
+        <v>1827.66</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1433.120000</v>
+        <v>-1433.12</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>33490.177745</v>
+        <v>33490.177745000001</v>
       </c>
       <c r="B8" s="1">
-        <v>9.302827</v>
+        <v>9.3028270000000006</v>
       </c>
       <c r="C8" s="1">
-        <v>896.767000</v>
+        <v>896.76700000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>-186.871000</v>
+        <v>-186.87100000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>33500.308035</v>
+        <v>33500.308035000002</v>
       </c>
       <c r="G8" s="1">
-        <v>9.305641</v>
+        <v>9.3056409999999996</v>
       </c>
       <c r="H8" s="1">
-        <v>914.246000</v>
+        <v>914.24599999999998</v>
       </c>
       <c r="I8" s="1">
-        <v>-161.209000</v>
+        <v>-161.209</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>33510.774578</v>
+        <v>33510.774577999997</v>
       </c>
       <c r="L8" s="1">
         <v>9.308548</v>
       </c>
       <c r="M8" s="1">
-        <v>939.778000</v>
+        <v>939.77800000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.009000</v>
+        <v>-118.009</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>33521.320548</v>
+        <v>33521.320548000003</v>
       </c>
       <c r="Q8" s="1">
-        <v>9.311478</v>
+        <v>9.3114779999999993</v>
       </c>
       <c r="R8" s="1">
-        <v>947.703000</v>
+        <v>947.70299999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.907000</v>
+        <v>-102.907</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>33531.440886</v>
+        <v>33531.440885999997</v>
       </c>
       <c r="V8" s="1">
-        <v>9.314289</v>
+        <v>9.3142890000000005</v>
       </c>
       <c r="W8" s="1">
-        <v>955.556000</v>
+        <v>955.55600000000004</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.506300</v>
+        <v>-88.506299999999996</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>33541.845497</v>
+        <v>33541.845497000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>9.317179</v>
+        <v>9.3171789999999994</v>
       </c>
       <c r="AB8" s="1">
-        <v>963.708000</v>
+        <v>963.70799999999997</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.101300</v>
+        <v>-77.101299999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>33552.465308</v>
+        <v>33552.465307999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>9.320129</v>
+        <v>9.3201289999999997</v>
       </c>
       <c r="AG8" s="1">
-        <v>968.781000</v>
+        <v>968.78099999999995</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.960200</v>
+        <v>-74.9602</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>33562.523213</v>
       </c>
       <c r="AK8" s="1">
-        <v>9.322923</v>
+        <v>9.3229229999999994</v>
       </c>
       <c r="AL8" s="1">
-        <v>976.275000</v>
+        <v>976.27499999999998</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.596100</v>
+        <v>-79.596100000000007</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>33573.232304</v>
+        <v>33573.232303999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>9.325898</v>
+        <v>9.3258980000000005</v>
       </c>
       <c r="AQ8" s="1">
-        <v>984.472000</v>
+        <v>984.47199999999998</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.028400</v>
+        <v>-91.028400000000005</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>33583.891347</v>
+        <v>33583.891346999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>9.328859</v>
+        <v>9.3288589999999996</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.347000</v>
+        <v>994.34699999999998</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.480000</v>
+        <v>-108.48</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>33594.980882</v>
+        <v>33594.980882000003</v>
       </c>
       <c r="AZ8" s="1">
-        <v>9.331939</v>
+        <v>9.3319390000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>1002.610000</v>
+        <v>1002.61</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.058000</v>
+        <v>-124.05800000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>33605.675620</v>
+        <v>33605.675620000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>9.334910</v>
+        <v>9.3349100000000007</v>
       </c>
       <c r="BF8" s="1">
-        <v>1040.920000</v>
+        <v>1040.92</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.651000</v>
+        <v>-195.65100000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>33616.782535</v>
+        <v>33616.782534999998</v>
       </c>
       <c r="BJ8" s="1">
-        <v>9.337995</v>
+        <v>9.3379949999999994</v>
       </c>
       <c r="BK8" s="1">
-        <v>1106.830000</v>
+        <v>1106.83</v>
       </c>
       <c r="BL8" s="1">
-        <v>-312.230000</v>
+        <v>-312.23</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>33627.326984</v>
+        <v>33627.326983999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>9.340924</v>
+        <v>9.3409239999999993</v>
       </c>
       <c r="BP8" s="1">
-        <v>1213.930000</v>
+        <v>1213.93</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-496.749000</v>
+        <v>-496.74900000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>33637.781690</v>
+        <v>33637.781690000003</v>
       </c>
       <c r="BT8" s="1">
-        <v>9.343828</v>
+        <v>9.3438280000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1334.800000</v>
+        <v>1334.8</v>
       </c>
       <c r="BV8" s="1">
-        <v>-699.545000</v>
+        <v>-699.54499999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>33648.991244</v>
+        <v>33648.991243999997</v>
       </c>
       <c r="BY8" s="1">
-        <v>9.346942</v>
+        <v>9.3469420000000003</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1470.470000</v>
+        <v>1470.47</v>
       </c>
       <c r="CA8" s="1">
-        <v>-916.639000</v>
+        <v>-916.63900000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>33660.546540</v>
+        <v>33660.546540000003</v>
       </c>
       <c r="CD8" s="1">
-        <v>9.350152</v>
+        <v>9.3501519999999996</v>
       </c>
       <c r="CE8" s="1">
-        <v>1828.600000</v>
+        <v>1828.6</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1432.350000</v>
+        <v>-1432.35</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>33490.548535</v>
+        <v>33490.548535000002</v>
       </c>
       <c r="B9" s="1">
-        <v>9.302930</v>
+        <v>9.3029299999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>896.898000</v>
+        <v>896.89800000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-187.070000</v>
+        <v>-187.07</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>33500.649744</v>
+        <v>33500.649744000002</v>
       </c>
       <c r="G9" s="1">
-        <v>9.305736</v>
+        <v>9.3057359999999996</v>
       </c>
       <c r="H9" s="1">
-        <v>914.540000</v>
+        <v>914.54</v>
       </c>
       <c r="I9" s="1">
-        <v>-160.677000</v>
+        <v>-160.67699999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>33511.132195</v>
+        <v>33511.132194999998</v>
       </c>
       <c r="L9" s="1">
-        <v>9.308648</v>
+        <v>9.3086479999999998</v>
       </c>
       <c r="M9" s="1">
-        <v>939.771000</v>
+        <v>939.77099999999996</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.028000</v>
+        <v>-118.02800000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>33521.671214</v>
+        <v>33521.671214000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>9.311575</v>
+        <v>9.3115749999999995</v>
       </c>
       <c r="R9" s="1">
-        <v>947.716000</v>
+        <v>947.71600000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.914000</v>
+        <v>-102.914</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>33531.862487</v>
+        <v>33531.862486999999</v>
       </c>
       <c r="V9" s="1">
         <v>9.314406</v>
       </c>
       <c r="W9" s="1">
-        <v>955.485000</v>
+        <v>955.48500000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.565900</v>
+        <v>-88.565899999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>33542.269544</v>
+        <v>33542.269544000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>9.317297</v>
+        <v>9.3172969999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>963.573000</v>
+        <v>963.57299999999998</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.978100</v>
+        <v>-76.978099999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>33552.741084</v>
+        <v>33552.741084000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>9.320206</v>
+        <v>9.3202060000000007</v>
       </c>
       <c r="AG9" s="1">
-        <v>968.769000</v>
+        <v>968.76900000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.977600</v>
+        <v>-74.977599999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>33562.874855</v>
+        <v>33562.874855000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>9.323021</v>
+        <v>9.3230210000000007</v>
       </c>
       <c r="AL9" s="1">
-        <v>976.310000</v>
+        <v>976.31</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.592700</v>
+        <v>-79.592699999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>33573.592400</v>
+        <v>33573.592400000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>9.325998</v>
+        <v>9.3259980000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.455000</v>
+        <v>984.45500000000004</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.018400</v>
+        <v>-91.0184</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>33584.255393</v>
+        <v>33584.255392999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>9.328960</v>
+        <v>9.3289600000000004</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.357000</v>
+        <v>994.35699999999997</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.489000</v>
+        <v>-108.489</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>33595.699585</v>
+        <v>33595.699585000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>9.332139</v>
+        <v>9.3321389999999997</v>
       </c>
       <c r="BA9" s="1">
-        <v>1002.590000</v>
+        <v>1002.59</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.052000</v>
+        <v>-124.05200000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>33606.397795</v>
+        <v>33606.397794999997</v>
       </c>
       <c r="BE9" s="1">
-        <v>9.335110</v>
+        <v>9.3351100000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1040.930000</v>
+        <v>1040.93</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.682000</v>
+        <v>-195.68199999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>33617.186278</v>
+        <v>33617.186278000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>9.338107</v>
+        <v>9.3381070000000008</v>
       </c>
       <c r="BK9" s="1">
-        <v>1106.850000</v>
+        <v>1106.8499999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-312.272000</v>
+        <v>-312.27199999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>33627.742135</v>
       </c>
       <c r="BO9" s="1">
-        <v>9.341039</v>
+        <v>9.3410390000000003</v>
       </c>
       <c r="BP9" s="1">
-        <v>1213.930000</v>
+        <v>1213.93</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-496.736000</v>
+        <v>-496.73599999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>33638.191355</v>
+        <v>33638.191355000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>9.343942</v>
+        <v>9.3439420000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1334.840000</v>
+        <v>1334.84</v>
       </c>
       <c r="BV9" s="1">
-        <v>-699.592000</v>
+        <v>-699.59199999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>33649.761557</v>
+        <v>33649.761556999998</v>
       </c>
       <c r="BY9" s="1">
         <v>9.347156</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1470.450000</v>
+        <v>1470.45</v>
       </c>
       <c r="CA9" s="1">
-        <v>-916.712000</v>
+        <v>-916.71199999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>33661.409123</v>
+        <v>33661.409122999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>9.350391</v>
+        <v>9.3503910000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1827.610000</v>
+        <v>1827.61</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1431.520000</v>
+        <v>-1431.52</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>33490.890958</v>
+        <v>33490.890958000004</v>
       </c>
       <c r="B10" s="1">
-        <v>9.303025</v>
+        <v>9.3030249999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>897.024000</v>
+        <v>897.024</v>
       </c>
       <c r="D10" s="1">
-        <v>-187.007000</v>
+        <v>-187.00700000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>33500.999424</v>
+        <v>33500.999424000001</v>
       </c>
       <c r="G10" s="1">
-        <v>9.305833</v>
+        <v>9.3058329999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>913.859000</v>
+        <v>913.85900000000004</v>
       </c>
       <c r="I10" s="1">
-        <v>-161.316000</v>
+        <v>-161.316</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>33511.553792</v>
+        <v>33511.553791999999</v>
       </c>
       <c r="L10" s="1">
-        <v>9.308765</v>
+        <v>9.3087649999999993</v>
       </c>
       <c r="M10" s="1">
-        <v>939.849000</v>
+        <v>939.84900000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.014000</v>
+        <v>-118.014</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>33522.085843</v>
+        <v>33522.085843000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>9.311691</v>
+        <v>9.3116909999999997</v>
       </c>
       <c r="R10" s="1">
-        <v>947.710000</v>
+        <v>947.71</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.913000</v>
+        <v>-102.913</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>33532.137766</v>
       </c>
       <c r="V10" s="1">
-        <v>9.314483</v>
+        <v>9.3144829999999992</v>
       </c>
       <c r="W10" s="1">
-        <v>955.484000</v>
+        <v>955.48400000000004</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.505300</v>
+        <v>-88.505300000000005</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>33542.547801</v>
+        <v>33542.547801000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>9.317374</v>
+        <v>9.3173739999999992</v>
       </c>
       <c r="AB10" s="1">
-        <v>963.776000</v>
+        <v>963.77599999999995</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.114500</v>
+        <v>-77.114500000000007</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>33553.085346</v>
       </c>
       <c r="AF10" s="1">
-        <v>9.320301</v>
+        <v>9.3203010000000006</v>
       </c>
       <c r="AG10" s="1">
-        <v>968.782000</v>
+        <v>968.78200000000004</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.967100</v>
+        <v>-74.967100000000002</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>33563.226508</v>
       </c>
       <c r="AK10" s="1">
-        <v>9.323118</v>
+        <v>9.3231179999999991</v>
       </c>
       <c r="AL10" s="1">
-        <v>976.279000</v>
+        <v>976.279</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.602800</v>
+        <v>-79.602800000000002</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>33573.952990</v>
+        <v>33573.952989999998</v>
       </c>
       <c r="AP10" s="1">
         <v>9.326098</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.462000</v>
+        <v>984.46199999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.020800</v>
+        <v>-91.020799999999994</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>33584.986031</v>
       </c>
       <c r="AU10" s="1">
-        <v>9.329163</v>
+        <v>9.3291629999999994</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.359000</v>
+        <v>994.35900000000004</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.492000</v>
+        <v>-108.492</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>33596.056705</v>
+        <v>33596.056705000003</v>
       </c>
       <c r="AZ10" s="1">
-        <v>9.332238</v>
+        <v>9.3322380000000003</v>
       </c>
       <c r="BA10" s="1">
-        <v>1002.600000</v>
+        <v>1002.6</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.040000</v>
+        <v>-124.04</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>33606.759380</v>
+        <v>33606.759380000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>9.335211</v>
+        <v>9.3352109999999993</v>
       </c>
       <c r="BF10" s="1">
-        <v>1040.920000</v>
+        <v>1040.92</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.682000</v>
+        <v>-195.68199999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>33617.561749</v>
       </c>
       <c r="BJ10" s="1">
-        <v>9.338212</v>
+        <v>9.3382120000000004</v>
       </c>
       <c r="BK10" s="1">
-        <v>1106.840000</v>
+        <v>1106.8399999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-312.260000</v>
+        <v>-312.26</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>33628.447984</v>
+        <v>33628.447983999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>9.341236</v>
+        <v>9.3412360000000003</v>
       </c>
       <c r="BP10" s="1">
-        <v>1213.920000</v>
+        <v>1213.92</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-496.759000</v>
+        <v>-496.75900000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>33638.934360</v>
+        <v>33638.934359999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>9.344148</v>
+        <v>9.3441480000000006</v>
       </c>
       <c r="BU10" s="1">
-        <v>1334.910000</v>
+        <v>1334.91</v>
       </c>
       <c r="BV10" s="1">
-        <v>-699.569000</v>
+        <v>-699.56899999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>33649.894954</v>
+        <v>33649.894954000003</v>
       </c>
       <c r="BY10" s="1">
-        <v>9.347193</v>
+        <v>9.3471930000000008</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1470.580000</v>
+        <v>1470.58</v>
       </c>
       <c r="CA10" s="1">
-        <v>-916.792000</v>
+        <v>-916.79200000000003</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>33661.582188</v>
       </c>
       <c r="CD10" s="1">
-        <v>9.350439</v>
+        <v>9.3504389999999997</v>
       </c>
       <c r="CE10" s="1">
-        <v>1827.000000</v>
+        <v>1827</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1432.770000</v>
+        <v>-1432.77</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>33491.235675</v>
+        <v>33491.235675000004</v>
       </c>
       <c r="B11" s="1">
-        <v>9.303121</v>
+        <v>9.3031210000000009</v>
       </c>
       <c r="C11" s="1">
-        <v>896.995000</v>
+        <v>896.995</v>
       </c>
       <c r="D11" s="1">
-        <v>-186.992000</v>
+        <v>-186.99199999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>33501.408126</v>
+        <v>33501.408126000002</v>
       </c>
       <c r="G11" s="1">
-        <v>9.305947</v>
+        <v>9.3059469999999997</v>
       </c>
       <c r="H11" s="1">
-        <v>914.480000</v>
+        <v>914.48</v>
       </c>
       <c r="I11" s="1">
-        <v>-161.286000</v>
+        <v>-161.286</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>33511.825104</v>
+        <v>33511.825104000003</v>
       </c>
       <c r="L11" s="1">
-        <v>9.308840</v>
+        <v>9.30884</v>
       </c>
       <c r="M11" s="1">
-        <v>939.837000</v>
+        <v>939.83699999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.062000</v>
+        <v>-118.062</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>33522.366119</v>
+        <v>33522.366118999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>9.311768</v>
+        <v>9.3117680000000007</v>
       </c>
       <c r="R11" s="1">
-        <v>947.777000</v>
+        <v>947.77700000000004</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.915000</v>
+        <v>-102.91500000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>33532.482981</v>
+        <v>33532.482981000001</v>
       </c>
       <c r="V11" s="1">
-        <v>9.314579</v>
+        <v>9.3145790000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>955.526000</v>
+        <v>955.52599999999995</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.522400</v>
+        <v>-88.522400000000005</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>33542.898968</v>
+        <v>33542.898968000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>9.317472</v>
+        <v>9.3174720000000004</v>
       </c>
       <c r="AB11" s="1">
-        <v>963.744000</v>
+        <v>963.74400000000003</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.159800</v>
+        <v>-77.159800000000004</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>33553.429561</v>
+        <v>33553.429560999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>9.320397</v>
+        <v>9.3203969999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>968.790000</v>
+        <v>968.79</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.020400</v>
+        <v>-75.020399999999995</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>33563.921435</v>
+        <v>33563.921434999997</v>
       </c>
       <c r="AK11" s="1">
-        <v>9.323312</v>
+        <v>9.3233119999999996</v>
       </c>
       <c r="AL11" s="1">
-        <v>976.271000</v>
+        <v>976.27099999999996</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.607200</v>
+        <v>-79.607200000000006</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>33574.676158</v>
+        <v>33574.676158000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>9.326299</v>
+        <v>9.3262990000000006</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.448000</v>
+        <v>984.44799999999998</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.023300</v>
+        <v>-91.023300000000006</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>33585.370895</v>
       </c>
       <c r="AU11" s="1">
-        <v>9.329270</v>
+        <v>9.3292699999999993</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.382000</v>
+        <v>994.38199999999995</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.488000</v>
+        <v>-108.488</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>33596.418288</v>
+        <v>33596.418288000001</v>
       </c>
       <c r="AZ11" s="1">
         <v>9.332338</v>
       </c>
       <c r="BA11" s="1">
-        <v>1002.590000</v>
+        <v>1002.59</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.039000</v>
+        <v>-124.039</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>33607.120970</v>
+        <v>33607.120970000004</v>
       </c>
       <c r="BE11" s="1">
-        <v>9.335311</v>
+        <v>9.3353110000000008</v>
       </c>
       <c r="BF11" s="1">
-        <v>1040.920000</v>
+        <v>1040.92</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.676000</v>
+        <v>-195.67599999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>33618.242755</v>
+        <v>33618.242754999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>9.338401</v>
+        <v>9.3384009999999993</v>
       </c>
       <c r="BK11" s="1">
-        <v>1106.850000</v>
+        <v>1106.8499999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-312.287000</v>
+        <v>-312.28699999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>33628.560535</v>
+        <v>33628.560534999997</v>
       </c>
       <c r="BO11" s="1">
-        <v>9.341267</v>
+        <v>9.3412670000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1213.930000</v>
+        <v>1213.93</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-496.780000</v>
+        <v>-496.78</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>33639.048936</v>
+        <v>33639.048935999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>9.344180</v>
+        <v>9.3441799999999997</v>
       </c>
       <c r="BU11" s="1">
-        <v>1334.940000</v>
+        <v>1334.94</v>
       </c>
       <c r="BV11" s="1">
-        <v>-699.608000</v>
+        <v>-699.60799999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>33650.316057</v>
+        <v>33650.316057000004</v>
       </c>
       <c r="BY11" s="1">
-        <v>9.347310</v>
+        <v>9.3473100000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1470.570000</v>
+        <v>1470.57</v>
       </c>
       <c r="CA11" s="1">
-        <v>-916.608000</v>
+        <v>-916.60799999999995</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>33662.096572</v>
+        <v>33662.096572000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>9.350582</v>
+        <v>9.3505819999999993</v>
       </c>
       <c r="CE11" s="1">
-        <v>1828.190000</v>
+        <v>1828.19</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1433.180000</v>
+        <v>-1433.18</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>33491.659260</v>
+        <v>33491.65926</v>
       </c>
       <c r="B12" s="1">
-        <v>9.303239</v>
+        <v>9.3032389999999996</v>
       </c>
       <c r="C12" s="1">
-        <v>896.694000</v>
+        <v>896.69399999999996</v>
       </c>
       <c r="D12" s="1">
-        <v>-187.193000</v>
+        <v>-187.19300000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>33501.704239</v>
+        <v>33501.704238999999</v>
       </c>
       <c r="G12" s="1">
-        <v>9.306029</v>
+        <v>9.3060290000000006</v>
       </c>
       <c r="H12" s="1">
-        <v>914.671000</v>
+        <v>914.67100000000005</v>
       </c>
       <c r="I12" s="1">
-        <v>-160.952000</v>
+        <v>-160.952</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>33512.171808</v>
+        <v>33512.171807999999</v>
       </c>
       <c r="L12" s="1">
-        <v>9.308937</v>
+        <v>9.3089370000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>939.739000</v>
+        <v>939.73900000000003</v>
       </c>
       <c r="N12" s="1">
-        <v>-117.922000</v>
+        <v>-117.922</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>33522.716259</v>
+        <v>33522.716259000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>9.311866</v>
+        <v>9.3118660000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>947.742000</v>
+        <v>947.74199999999996</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.942000</v>
+        <v>-102.94199999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>33532.825748</v>
+        <v>33532.825748000003</v>
       </c>
       <c r="V12" s="1">
-        <v>9.314674</v>
+        <v>9.3146740000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>955.576000</v>
+        <v>955.57600000000002</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.570100</v>
+        <v>-88.570099999999996</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>33543.249640</v>
+        <v>33543.249640000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>9.317569</v>
+        <v>9.3175690000000007</v>
       </c>
       <c r="AB12" s="1">
-        <v>963.715000</v>
+        <v>963.71500000000003</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.150100</v>
+        <v>-77.150099999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>33554.116488</v>
       </c>
       <c r="AF12" s="1">
-        <v>9.320588</v>
+        <v>9.3205880000000008</v>
       </c>
       <c r="AG12" s="1">
-        <v>968.767000</v>
+        <v>968.76700000000005</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.990100</v>
+        <v>-74.990099999999998</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>33564.267611</v>
+        <v>33564.267611000003</v>
       </c>
       <c r="AK12" s="1">
-        <v>9.323408</v>
+        <v>9.3234080000000006</v>
       </c>
       <c r="AL12" s="1">
-        <v>976.284000</v>
+        <v>976.28399999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.617700</v>
+        <v>-79.617699999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>33575.034301</v>
       </c>
       <c r="AP12" s="1">
-        <v>9.326398</v>
+        <v>9.3263979999999993</v>
       </c>
       <c r="AQ12" s="1">
-        <v>984.468000</v>
+        <v>984.46799999999996</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.033700</v>
+        <v>-91.033699999999996</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>33585.735951</v>
+        <v>33585.735951000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>9.329371</v>
+        <v>9.3293710000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.353000</v>
+        <v>994.35299999999995</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.476000</v>
+        <v>-108.476</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>33597.092882</v>
+        <v>33597.092881999997</v>
       </c>
       <c r="AZ12" s="1">
-        <v>9.332526</v>
+        <v>9.3325259999999997</v>
       </c>
       <c r="BA12" s="1">
-        <v>1002.600000</v>
+        <v>1002.6</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.052000</v>
+        <v>-124.05200000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>33607.793538</v>
+        <v>33607.793537999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>9.335498</v>
+        <v>9.3354979999999994</v>
       </c>
       <c r="BF12" s="1">
-        <v>1040.900000</v>
+        <v>1040.9000000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.669000</v>
+        <v>-195.66900000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>33618.352403</v>
+        <v>33618.352402999997</v>
       </c>
       <c r="BJ12" s="1">
-        <v>9.338431</v>
+        <v>9.3384309999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1106.830000</v>
+        <v>1106.83</v>
       </c>
       <c r="BL12" s="1">
-        <v>-312.298000</v>
+        <v>-312.298</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>33628.984119</v>
+        <v>33628.984119000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>9.341384</v>
+        <v>9.3413839999999997</v>
       </c>
       <c r="BP12" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-496.732000</v>
+        <v>-496.73200000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>33639.488427</v>
+        <v>33639.488426999997</v>
       </c>
       <c r="BT12" s="1">
-        <v>9.344302</v>
+        <v>9.3443020000000008</v>
       </c>
       <c r="BU12" s="1">
-        <v>1334.990000</v>
+        <v>1334.99</v>
       </c>
       <c r="BV12" s="1">
-        <v>-699.655000</v>
+        <v>-699.65499999999997</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>33650.740136</v>
       </c>
       <c r="BY12" s="1">
-        <v>9.347428</v>
+        <v>9.3474280000000007</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1470.550000</v>
+        <v>1470.55</v>
       </c>
       <c r="CA12" s="1">
-        <v>-916.668000</v>
+        <v>-916.66800000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>33662.617834</v>
+        <v>33662.617833999997</v>
       </c>
       <c r="CD12" s="1">
-        <v>9.350727</v>
+        <v>9.3507269999999991</v>
       </c>
       <c r="CE12" s="1">
-        <v>1828.550000</v>
+        <v>1828.55</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1431.940000</v>
+        <v>-1431.94</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>33491.941516</v>
+        <v>33491.941515999999</v>
       </c>
       <c r="B13" s="1">
-        <v>9.303317</v>
+        <v>9.3033169999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>896.965000</v>
+        <v>896.96500000000003</v>
       </c>
       <c r="D13" s="1">
-        <v>-186.960000</v>
+        <v>-186.96</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>33502.046477</v>
+        <v>33502.046477000004</v>
       </c>
       <c r="G13" s="1">
-        <v>9.306124</v>
+        <v>9.3061240000000005</v>
       </c>
       <c r="H13" s="1">
-        <v>914.267000</v>
+        <v>914.26700000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-161.009000</v>
+        <v>-161.00899999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>33512.516063</v>
+        <v>33512.516063000003</v>
       </c>
       <c r="L13" s="1">
-        <v>9.309032</v>
+        <v>9.3090320000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>939.815000</v>
+        <v>939.81500000000005</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.069000</v>
+        <v>-118.069</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>33523.064450</v>
+        <v>33523.064449999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>9.311962</v>
+        <v>9.3119619999999994</v>
       </c>
       <c r="R13" s="1">
-        <v>947.702000</v>
+        <v>947.702</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.933000</v>
+        <v>-102.93300000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>33533.508707</v>
+        <v>33533.508707000001</v>
       </c>
       <c r="V13" s="1">
         <v>9.314864</v>
       </c>
       <c r="W13" s="1">
-        <v>955.526000</v>
+        <v>955.52599999999995</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.556200</v>
+        <v>-88.556200000000004</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>33543.942551</v>
       </c>
       <c r="AA13" s="1">
-        <v>9.317762</v>
+        <v>9.3177620000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>963.669000</v>
+        <v>963.66899999999998</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.162100</v>
+        <v>-77.162099999999995</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>33554.460217</v>
       </c>
       <c r="AF13" s="1">
-        <v>9.320683</v>
+        <v>9.3206830000000007</v>
       </c>
       <c r="AG13" s="1">
-        <v>968.780000</v>
+        <v>968.78</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.964400</v>
+        <v>-74.964399999999998</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>33564.617786</v>
+        <v>33564.617786000003</v>
       </c>
       <c r="AK13" s="1">
-        <v>9.323505</v>
+        <v>9.3235050000000008</v>
       </c>
       <c r="AL13" s="1">
-        <v>976.263000</v>
+        <v>976.26300000000003</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.596400</v>
+        <v>-79.596400000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>33575.395356</v>
+        <v>33575.395356000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>9.326499</v>
+        <v>9.3264990000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.478000</v>
+        <v>984.47799999999995</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.022000</v>
+        <v>-91.022000000000006</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>33586.411503</v>
+        <v>33586.411503000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>9.329559</v>
+        <v>9.3295589999999997</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.343000</v>
+        <v>994.34299999999996</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.489000</v>
+        <v>-108.489</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>33597.519407</v>
       </c>
       <c r="AZ13" s="1">
-        <v>9.332644</v>
+        <v>9.3326440000000002</v>
       </c>
       <c r="BA13" s="1">
-        <v>1002.610000</v>
+        <v>1002.61</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.058000</v>
+        <v>-124.05800000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>33608.238946</v>
+        <v>33608.238945999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>9.335622</v>
+        <v>9.3356220000000008</v>
       </c>
       <c r="BF13" s="1">
-        <v>1040.920000</v>
+        <v>1040.92</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.683000</v>
+        <v>-195.68299999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>33618.712467</v>
+        <v>33618.712466999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>9.338531</v>
+        <v>9.3385309999999997</v>
       </c>
       <c r="BK13" s="1">
-        <v>1106.830000</v>
+        <v>1106.83</v>
       </c>
       <c r="BL13" s="1">
-        <v>-312.252000</v>
+        <v>-312.25200000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>33629.379430</v>
+        <v>33629.379430000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>9.341494</v>
+        <v>9.3414940000000009</v>
       </c>
       <c r="BP13" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-496.812000</v>
+        <v>-496.81200000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>33639.899576</v>
+        <v>33639.899576000003</v>
       </c>
       <c r="BT13" s="1">
         <v>9.344417</v>
       </c>
       <c r="BU13" s="1">
-        <v>1335.000000</v>
+        <v>1335</v>
       </c>
       <c r="BV13" s="1">
-        <v>-699.699000</v>
+        <v>-699.69899999999996</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>33651.193985</v>
+        <v>33651.193984999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>9.347554</v>
+        <v>9.3475540000000006</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1470.540000</v>
+        <v>1470.54</v>
       </c>
       <c r="CA13" s="1">
-        <v>-916.745000</v>
+        <v>-916.745</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>33663.132682</v>
+        <v>33663.132682000003</v>
       </c>
       <c r="CD13" s="1">
-        <v>9.350870</v>
+        <v>9.3508700000000005</v>
       </c>
       <c r="CE13" s="1">
-        <v>1828.550000</v>
+        <v>1828.55</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1431.990000</v>
+        <v>-1431.99</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>33492.282732</v>
       </c>
       <c r="B14" s="1">
-        <v>9.303412</v>
+        <v>9.3034119999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>896.912000</v>
+        <v>896.91200000000003</v>
       </c>
       <c r="D14" s="1">
-        <v>-187.020000</v>
+        <v>-187.02</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>33502.390700</v>
+        <v>33502.390700000004</v>
       </c>
       <c r="G14" s="1">
-        <v>9.306220</v>
+        <v>9.3062199999999997</v>
       </c>
       <c r="H14" s="1">
-        <v>914.791000</v>
+        <v>914.79100000000005</v>
       </c>
       <c r="I14" s="1">
-        <v>-161.195000</v>
+        <v>-161.19499999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>33513.209936</v>
+        <v>33513.209935999999</v>
       </c>
       <c r="L14" s="1">
-        <v>9.309225</v>
+        <v>9.3092249999999996</v>
       </c>
       <c r="M14" s="1">
-        <v>939.738000</v>
+        <v>939.73800000000006</v>
       </c>
       <c r="N14" s="1">
-        <v>-117.909000</v>
+        <v>-117.90900000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>33523.762816</v>
+        <v>33523.762816000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>9.312156</v>
+        <v>9.3121559999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>947.697000</v>
+        <v>947.697</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.889000</v>
+        <v>-102.889</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>33533.855411</v>
+        <v>33533.855410999997</v>
       </c>
       <c r="V14" s="1">
-        <v>9.314960</v>
+        <v>9.3149599999999992</v>
       </c>
       <c r="W14" s="1">
-        <v>955.605000</v>
+        <v>955.60500000000002</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.539200</v>
+        <v>-88.539199999999994</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>33544.321530</v>
+        <v>33544.321530000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>9.317867</v>
+        <v>9.3178669999999997</v>
       </c>
       <c r="AB14" s="1">
-        <v>963.695000</v>
+        <v>963.69500000000005</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.098600</v>
+        <v>-77.098600000000005</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>33554.803479</v>
+        <v>33554.803479000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>9.320779</v>
+        <v>9.3207789999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>968.770000</v>
+        <v>968.77</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.022200</v>
+        <v>-75.022199999999998</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>33565.280474</v>
+        <v>33565.280473999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>9.323689</v>
+        <v>9.3236889999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>976.270000</v>
+        <v>976.27</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.577800</v>
+        <v>-79.577799999999996</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>33576.067931</v>
+        <v>33576.067930999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>9.326686</v>
+        <v>9.3266860000000005</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.462000</v>
+        <v>984.46199999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.020400</v>
+        <v>-91.020399999999995</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>33586.864348</v>
+        <v>33586.864348000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>9.329685</v>
+        <v>9.3296849999999996</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.370000</v>
+        <v>994.37</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.483000</v>
+        <v>-108.483</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>33597.897360</v>
+        <v>33597.897360000003</v>
       </c>
       <c r="AZ14" s="1">
-        <v>9.332749</v>
+        <v>9.3327489999999997</v>
       </c>
       <c r="BA14" s="1">
-        <v>1002.610000</v>
+        <v>1002.61</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.035000</v>
+        <v>-124.035</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>33608.599079</v>
       </c>
       <c r="BE14" s="1">
-        <v>9.335722</v>
+        <v>9.3357220000000005</v>
       </c>
       <c r="BF14" s="1">
-        <v>1040.920000</v>
+        <v>1040.92</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.674000</v>
+        <v>-195.67400000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>33619.085000</v>
+        <v>33619.084999999999</v>
       </c>
       <c r="BJ14" s="1">
         <v>9.338635</v>
       </c>
       <c r="BK14" s="1">
-        <v>1106.840000</v>
+        <v>1106.8399999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-312.246000</v>
+        <v>-312.24599999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>33629.805492</v>
       </c>
       <c r="BO14" s="1">
-        <v>9.341613</v>
+        <v>9.3416130000000006</v>
       </c>
       <c r="BP14" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-496.787000</v>
+        <v>-496.78699999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>33640.331096</v>
+        <v>33640.331096000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>9.344536</v>
+        <v>9.3445359999999997</v>
       </c>
       <c r="BU14" s="1">
-        <v>1335.070000</v>
+        <v>1335.07</v>
       </c>
       <c r="BV14" s="1">
-        <v>-699.745000</v>
+        <v>-699.745</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>33651.641369</v>
+        <v>33651.641368999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>9.347678</v>
+        <v>9.3476780000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1470.520000</v>
+        <v>1470.52</v>
       </c>
       <c r="CA14" s="1">
-        <v>-916.756000</v>
+        <v>-916.75599999999997</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>33663.685721</v>
+        <v>33663.685721000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>9.351024</v>
+        <v>9.3510240000000007</v>
       </c>
       <c r="CE14" s="1">
-        <v>1828.390000</v>
+        <v>1828.39</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1432.900000</v>
+        <v>-1432.9</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>33492.622988</v>
+        <v>33492.622988000003</v>
       </c>
       <c r="B15" s="1">
-        <v>9.303506</v>
+        <v>9.3035060000000005</v>
       </c>
       <c r="C15" s="1">
-        <v>896.994000</v>
+        <v>896.99400000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>-186.649000</v>
+        <v>-186.649</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>33503.081131</v>
+        <v>33503.081130999999</v>
       </c>
       <c r="G15" s="1">
-        <v>9.306411</v>
+        <v>9.3064110000000007</v>
       </c>
       <c r="H15" s="1">
-        <v>914.186000</v>
+        <v>914.18600000000004</v>
       </c>
       <c r="I15" s="1">
-        <v>-161.082000</v>
+        <v>-161.08199999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>33513.558623</v>
+        <v>33513.558622999997</v>
       </c>
       <c r="L15" s="1">
-        <v>9.309322</v>
+        <v>9.3093219999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>939.663000</v>
+        <v>939.66300000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.125000</v>
+        <v>-118.125</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>33524.112244</v>
+        <v>33524.112244000004</v>
       </c>
       <c r="Q15" s="1">
-        <v>9.312253</v>
+        <v>9.3122530000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>947.696000</v>
+        <v>947.69600000000003</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.868000</v>
+        <v>-102.86799999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>33534.196164</v>
+        <v>33534.196164000001</v>
       </c>
       <c r="V15" s="1">
-        <v>9.315054</v>
+        <v>9.3150539999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>955.560000</v>
+        <v>955.56</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.530800</v>
+        <v>-88.530799999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>33544.967286</v>
+        <v>33544.967285999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>9.318046</v>
+        <v>9.3180460000000007</v>
       </c>
       <c r="AB15" s="1">
-        <v>963.725000</v>
+        <v>963.72500000000002</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.179200</v>
+        <v>-77.179199999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>33555.465112</v>
+        <v>33555.465111999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>9.320963</v>
+        <v>9.3209630000000008</v>
       </c>
       <c r="AG15" s="1">
-        <v>968.784000</v>
+        <v>968.78399999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.994600</v>
+        <v>-74.994600000000005</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>33565.664377</v>
+        <v>33565.664377000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>9.323796</v>
+        <v>9.3237959999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>976.280000</v>
+        <v>976.28</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.581200</v>
+        <v>-79.581199999999995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>33576.490874</v>
+        <v>33576.490874000003</v>
       </c>
       <c r="AP15" s="1">
         <v>9.326803</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.449000</v>
+        <v>984.44899999999996</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.990200</v>
+        <v>-90.990200000000002</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>33587.231390</v>
+        <v>33587.231390000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>9.329786</v>
+        <v>9.3297860000000004</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.350000</v>
+        <v>994.35</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.449000</v>
+        <v>-108.449</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>33598.257455</v>
+        <v>33598.257454999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>9.332849</v>
+        <v>9.3328489999999995</v>
       </c>
       <c r="BA15" s="1">
-        <v>1002.600000</v>
+        <v>1002.6</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.052000</v>
+        <v>-124.05200000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>33608.961648</v>
+        <v>33608.961647999997</v>
       </c>
       <c r="BE15" s="1">
-        <v>9.335823</v>
+        <v>9.3358229999999995</v>
       </c>
       <c r="BF15" s="1">
-        <v>1040.920000</v>
+        <v>1040.92</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.679000</v>
+        <v>-195.679</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>33619.502626</v>
+        <v>33619.502626000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>9.338751</v>
+        <v>9.3387510000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1106.860000</v>
+        <v>1106.8599999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-312.283000</v>
+        <v>-312.28300000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>33630.200805</v>
       </c>
       <c r="BO15" s="1">
-        <v>9.341722</v>
+        <v>9.3417220000000007</v>
       </c>
       <c r="BP15" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-496.774000</v>
+        <v>-496.774</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>33640.758647</v>
+        <v>33640.758647000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>9.344655</v>
+        <v>9.3446549999999995</v>
       </c>
       <c r="BU15" s="1">
-        <v>1335.090000</v>
+        <v>1335.09</v>
       </c>
       <c r="BV15" s="1">
-        <v>-699.709000</v>
+        <v>-699.70899999999995</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>33652.069449</v>
+        <v>33652.069449000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>9.347797</v>
+        <v>9.3477969999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1470.540000</v>
+        <v>1470.54</v>
       </c>
       <c r="CA15" s="1">
-        <v>-916.695000</v>
+        <v>-916.69500000000005</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>33664.209992</v>
+        <v>33664.209991999996</v>
       </c>
       <c r="CD15" s="1">
-        <v>9.351169</v>
+        <v>9.3511690000000005</v>
       </c>
       <c r="CE15" s="1">
-        <v>1828.370000</v>
+        <v>1828.37</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1431.470000</v>
+        <v>-1431.47</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>33493.304490</v>
+        <v>33493.304490000002</v>
       </c>
       <c r="B16" s="1">
-        <v>9.303696</v>
+        <v>9.3036960000000004</v>
       </c>
       <c r="C16" s="1">
-        <v>896.948000</v>
+        <v>896.94799999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>-186.850000</v>
+        <v>-186.85</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>33503.423869</v>
+        <v>33503.423868999998</v>
       </c>
       <c r="G16" s="1">
-        <v>9.306507</v>
+        <v>9.3065069999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>914.392000</v>
+        <v>914.39200000000005</v>
       </c>
       <c r="I16" s="1">
-        <v>-161.186000</v>
+        <v>-161.18600000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>33513.904334</v>
+        <v>33513.904333999999</v>
       </c>
       <c r="L16" s="1">
-        <v>9.309418</v>
+        <v>9.3094180000000009</v>
       </c>
       <c r="M16" s="1">
-        <v>940.002000</v>
+        <v>940.00199999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.062000</v>
+        <v>-118.062</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>33524.460193</v>
+        <v>33524.460192999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>9.312350</v>
+        <v>9.3123500000000003</v>
       </c>
       <c r="R16" s="1">
-        <v>947.757000</v>
+        <v>947.75699999999995</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.796000</v>
+        <v>-102.79600000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>33534.850883</v>
+        <v>33534.850882999999</v>
       </c>
       <c r="V16" s="1">
-        <v>9.315236</v>
+        <v>9.3152360000000005</v>
       </c>
       <c r="W16" s="1">
-        <v>955.607000</v>
+        <v>955.60699999999997</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.505400</v>
+        <v>-88.505399999999995</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>33545.349236</v>
+        <v>33545.349236000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>9.318153</v>
+        <v>9.3181530000000006</v>
       </c>
       <c r="AB16" s="1">
-        <v>963.527000</v>
+        <v>963.52700000000004</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.178100</v>
+        <v>-77.178100000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>33555.837110</v>
+        <v>33555.83711</v>
       </c>
       <c r="AF16" s="1">
-        <v>9.321066</v>
+        <v>9.3210660000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>968.780000</v>
+        <v>968.78</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.007000</v>
+        <v>-75.007000000000005</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>33566.011545</v>
+        <v>33566.011545000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>9.323892</v>
+        <v>9.3238920000000007</v>
       </c>
       <c r="AL16" s="1">
-        <v>976.249000</v>
+        <v>976.24900000000002</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.617500</v>
+        <v>-79.617500000000007</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>33576.856074</v>
+        <v>33576.856074000003</v>
       </c>
       <c r="AP16" s="1">
-        <v>9.326904</v>
+        <v>9.3269040000000007</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.470000</v>
+        <v>984.47</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.008800</v>
+        <v>-91.008799999999994</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>33587.595452</v>
+        <v>33587.595452000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>9.329888</v>
+        <v>9.3298880000000004</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.360000</v>
+        <v>994.36</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.485000</v>
+        <v>-108.485</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>33598.672245</v>
+        <v>33598.672245000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>9.332965</v>
+        <v>9.3329649999999997</v>
       </c>
       <c r="BA16" s="1">
-        <v>1002.590000</v>
+        <v>1002.59</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.042000</v>
+        <v>-124.042</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>33609.383247</v>
+        <v>33609.383246999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>9.335940</v>
+        <v>9.3359400000000008</v>
       </c>
       <c r="BF16" s="1">
-        <v>1040.920000</v>
+        <v>1040.92</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.668000</v>
+        <v>-195.66800000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>33619.836402</v>
+        <v>33619.836402000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>9.338843</v>
+        <v>9.3388430000000007</v>
       </c>
       <c r="BK16" s="1">
-        <v>1106.840000</v>
+        <v>1106.8399999999999</v>
       </c>
       <c r="BL16" s="1">
-        <v>-312.248000</v>
+        <v>-312.24799999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>33630.616488</v>
       </c>
       <c r="BO16" s="1">
-        <v>9.341838</v>
+        <v>9.3418379999999992</v>
       </c>
       <c r="BP16" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-496.787000</v>
+        <v>-496.78699999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>33641.171354</v>
+        <v>33641.171353999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>9.344770</v>
+        <v>9.3447700000000005</v>
       </c>
       <c r="BU16" s="1">
-        <v>1335.080000</v>
+        <v>1335.08</v>
       </c>
       <c r="BV16" s="1">
-        <v>-699.750000</v>
+        <v>-699.75</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>33652.491047</v>
+        <v>33652.491047000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>9.347914</v>
+        <v>9.3479139999999994</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1470.480000</v>
+        <v>1470.48</v>
       </c>
       <c r="CA16" s="1">
-        <v>-916.678000</v>
+        <v>-916.678</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>33664.736278</v>
+        <v>33664.736277999997</v>
       </c>
       <c r="CD16" s="1">
-        <v>9.351316</v>
+        <v>9.3513160000000006</v>
       </c>
       <c r="CE16" s="1">
-        <v>1826.910000</v>
+        <v>1826.91</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1432.580000</v>
+        <v>-1432.58</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>33493.647224</v>
       </c>
       <c r="B17" s="1">
-        <v>9.303791</v>
+        <v>9.3037910000000004</v>
       </c>
       <c r="C17" s="1">
-        <v>897.114000</v>
+        <v>897.11400000000003</v>
       </c>
       <c r="D17" s="1">
-        <v>-186.849000</v>
+        <v>-186.84899999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>33503.770107</v>
+        <v>33503.770106999997</v>
       </c>
       <c r="G17" s="1">
-        <v>9.306603</v>
+        <v>9.3066030000000008</v>
       </c>
       <c r="H17" s="1">
-        <v>914.489000</v>
+        <v>914.48900000000003</v>
       </c>
       <c r="I17" s="1">
-        <v>-161.435000</v>
+        <v>-161.435</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>33514.547148</v>
+        <v>33514.547147999998</v>
       </c>
       <c r="L17" s="1">
-        <v>9.309596</v>
+        <v>9.3095960000000009</v>
       </c>
       <c r="M17" s="1">
-        <v>939.667000</v>
+        <v>939.66700000000003</v>
       </c>
       <c r="N17" s="1">
-        <v>-117.984000</v>
+        <v>-117.98399999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>33525.114415</v>
+        <v>33525.114414999996</v>
       </c>
       <c r="Q17" s="1">
-        <v>9.312532</v>
+        <v>9.3125319999999991</v>
       </c>
       <c r="R17" s="1">
-        <v>947.763000</v>
+        <v>947.76300000000003</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.857000</v>
+        <v>-102.857</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>33535.227347</v>
       </c>
       <c r="V17" s="1">
-        <v>9.315341</v>
+        <v>9.3153410000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>955.591000</v>
+        <v>955.59100000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.517400</v>
+        <v>-88.517399999999995</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>33545.696404</v>
+        <v>33545.696404000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>9.318249</v>
+        <v>9.3182489999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>963.793000</v>
+        <v>963.79300000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.211100</v>
+        <v>-77.211100000000002</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>33556.177863</v>
+        <v>33556.177862999997</v>
       </c>
       <c r="AF17" s="1">
         <v>9.321161</v>
       </c>
       <c r="AG17" s="1">
-        <v>968.782000</v>
+        <v>968.78200000000004</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.976500</v>
+        <v>-74.976500000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>33566.362216</v>
+        <v>33566.362216000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>9.323990</v>
+        <v>9.3239900000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>976.301000</v>
+        <v>976.30100000000004</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.584000</v>
+        <v>-79.584000000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>33577.216170</v>
+        <v>33577.21617</v>
       </c>
       <c r="AP17" s="1">
-        <v>9.327004</v>
+        <v>9.3270040000000005</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.471000</v>
+        <v>984.471</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.021100</v>
+        <v>-91.021100000000004</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>33588.022046</v>
+        <v>33588.022045999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>9.330006</v>
+        <v>9.3300059999999991</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.371000</v>
+        <v>994.37099999999998</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.488000</v>
+        <v>-108.488</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>33598.975672</v>
       </c>
       <c r="AZ17" s="1">
-        <v>9.333049</v>
+        <v>9.3330490000000008</v>
       </c>
       <c r="BA17" s="1">
-        <v>1002.600000</v>
+        <v>1002.6</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.043000</v>
+        <v>-124.04300000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>33609.683295</v>
+        <v>33609.683295000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>9.336023</v>
+        <v>9.3360230000000008</v>
       </c>
       <c r="BF17" s="1">
-        <v>1040.920000</v>
+        <v>1040.92</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.675000</v>
+        <v>-195.67500000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>33620.238161</v>
+        <v>33620.238161000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>9.338955</v>
+        <v>9.3389550000000003</v>
       </c>
       <c r="BK17" s="1">
-        <v>1106.850000</v>
+        <v>1106.8499999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-312.282000</v>
+        <v>-312.28199999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>33631.017220</v>
+        <v>33631.017220000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>9.341949</v>
+        <v>9.3419489999999996</v>
       </c>
       <c r="BP17" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-496.776000</v>
+        <v>-496.77600000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>33641.601861</v>
+        <v>33641.601861000003</v>
       </c>
       <c r="BT17" s="1">
-        <v>9.344889</v>
+        <v>9.3448890000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>1335.080000</v>
+        <v>1335.08</v>
       </c>
       <c r="BV17" s="1">
-        <v>-699.810000</v>
+        <v>-699.81</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>33652.915126</v>
       </c>
       <c r="BY17" s="1">
-        <v>9.348032</v>
+        <v>9.3480319999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1470.450000</v>
+        <v>1470.45</v>
       </c>
       <c r="CA17" s="1">
-        <v>-916.711000</v>
+        <v>-916.71100000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>33665.272453</v>
+        <v>33665.272452999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>9.351465</v>
+        <v>9.3514649999999993</v>
       </c>
       <c r="CE17" s="1">
-        <v>1828.560000</v>
+        <v>1828.56</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1433.100000</v>
+        <v>-1433.1</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>33493.990457</v>
       </c>
       <c r="B18" s="1">
-        <v>9.303886</v>
+        <v>9.3038860000000003</v>
       </c>
       <c r="C18" s="1">
-        <v>896.999000</v>
+        <v>896.99900000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>-186.890000</v>
+        <v>-186.89</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>33504.423802</v>
+        <v>33504.423801999998</v>
       </c>
       <c r="G18" s="1">
-        <v>9.306784</v>
+        <v>9.3067840000000004</v>
       </c>
       <c r="H18" s="1">
-        <v>914.234000</v>
+        <v>914.23400000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>-161.388000</v>
+        <v>-161.38800000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>33514.939519</v>
       </c>
       <c r="L18" s="1">
-        <v>9.309705</v>
+        <v>9.3097049999999992</v>
       </c>
       <c r="M18" s="1">
-        <v>939.649000</v>
+        <v>939.649</v>
       </c>
       <c r="N18" s="1">
-        <v>-117.951000</v>
+        <v>-117.95099999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>33525.503806</v>
+        <v>33525.503806000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>9.312640</v>
+        <v>9.31264</v>
       </c>
       <c r="R18" s="1">
-        <v>947.762000</v>
+        <v>947.76199999999994</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.861000</v>
+        <v>-102.861</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>33535.572066</v>
+        <v>33535.572066000001</v>
       </c>
       <c r="V18" s="1">
-        <v>9.315437</v>
+        <v>9.3154369999999993</v>
       </c>
       <c r="W18" s="1">
-        <v>955.523000</v>
+        <v>955.52300000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.452200</v>
+        <v>-88.452200000000005</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>33546.046612</v>
+        <v>33546.046611999998</v>
       </c>
       <c r="AA18" s="1">
         <v>9.318346</v>
       </c>
       <c r="AB18" s="1">
-        <v>963.774000</v>
+        <v>963.774</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.175800</v>
+        <v>-77.175799999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>33556.522614</v>
+        <v>33556.522614000001</v>
       </c>
       <c r="AF18" s="1">
         <v>9.321256</v>
       </c>
       <c r="AG18" s="1">
-        <v>968.767000</v>
+        <v>968.76700000000005</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.014400</v>
+        <v>-75.014399999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>33566.780875</v>
+        <v>33566.780874999997</v>
       </c>
       <c r="AK18" s="1">
-        <v>9.324106</v>
+        <v>9.3241060000000004</v>
       </c>
       <c r="AL18" s="1">
-        <v>976.269000</v>
+        <v>976.26900000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.571400</v>
+        <v>-79.571399999999997</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>33577.642729</v>
+        <v>33577.642728999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>9.327123</v>
+        <v>9.3271230000000003</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.487000</v>
+        <v>984.48699999999997</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.966100</v>
+        <v>-90.966099999999997</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>33588.322093</v>
+        <v>33588.322093000002</v>
       </c>
       <c r="AU18" s="1">
-        <v>9.330089</v>
+        <v>9.3300889999999992</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.365000</v>
+        <v>994.36500000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.482000</v>
+        <v>-108.482</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>33599.336254</v>
+        <v>33599.336254000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>9.333149</v>
+        <v>9.3331490000000006</v>
       </c>
       <c r="BA18" s="1">
-        <v>1002.610000</v>
+        <v>1002.61</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.062000</v>
+        <v>-124.062</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>33610.046864</v>
+        <v>33610.046864000004</v>
       </c>
       <c r="BE18" s="1">
-        <v>9.336124</v>
+        <v>9.3361239999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1040.920000</v>
+        <v>1040.92</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.667000</v>
+        <v>-195.667</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>33620.611187</v>
+        <v>33620.611187000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>9.339059</v>
+        <v>9.3390590000000007</v>
       </c>
       <c r="BK18" s="1">
-        <v>1106.850000</v>
+        <v>1106.8499999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-312.270000</v>
+        <v>-312.27</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>33631.437826</v>
+        <v>33631.437826000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>9.342066</v>
+        <v>9.3420660000000009</v>
       </c>
       <c r="BP18" s="1">
-        <v>1213.940000</v>
+        <v>1213.94</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-496.794000</v>
+        <v>-496.79399999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>33642.030884</v>
       </c>
       <c r="BT18" s="1">
-        <v>9.345009</v>
+        <v>9.3450089999999992</v>
       </c>
       <c r="BU18" s="1">
-        <v>1335.220000</v>
+        <v>1335.22</v>
       </c>
       <c r="BV18" s="1">
-        <v>-699.889000</v>
+        <v>-699.88900000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>33653.341653</v>
+        <v>33653.341653000003</v>
       </c>
       <c r="BY18" s="1">
-        <v>9.348150</v>
+        <v>9.3481500000000004</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1470.520000</v>
+        <v>1470.52</v>
       </c>
       <c r="CA18" s="1">
-        <v>-916.715000</v>
+        <v>-916.71500000000003</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>33665.813062</v>
+        <v>33665.813062000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>9.351615</v>
+        <v>9.3516150000000007</v>
       </c>
       <c r="CE18" s="1">
-        <v>1827.800000</v>
+        <v>1827.8</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1431.320000</v>
+        <v>-1431.32</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>33494.423004</v>
+        <v>33494.423003999997</v>
       </c>
       <c r="B19" s="1">
-        <v>9.304006</v>
+        <v>9.3040059999999993</v>
       </c>
       <c r="C19" s="1">
-        <v>897.065000</v>
+        <v>897.06500000000005</v>
       </c>
       <c r="D19" s="1">
-        <v>-186.790000</v>
+        <v>-186.79</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>33504.800265</v>
+        <v>33504.800264999998</v>
       </c>
       <c r="G19" s="1">
         <v>9.306889</v>
       </c>
       <c r="H19" s="1">
-        <v>914.661000</v>
+        <v>914.66099999999994</v>
       </c>
       <c r="I19" s="1">
-        <v>-161.272000</v>
+        <v>-161.27199999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>33515.283247</v>
+        <v>33515.283246999999</v>
       </c>
       <c r="L19" s="1">
-        <v>9.309801</v>
+        <v>9.3098010000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>939.763000</v>
+        <v>939.76300000000003</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.110000</v>
+        <v>-118.11</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>33525.851008</v>
+        <v>33525.851007999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>9.312736</v>
+        <v>9.3127359999999992</v>
       </c>
       <c r="R19" s="1">
-        <v>947.745000</v>
+        <v>947.745</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.847000</v>
+        <v>-102.84699999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>33535.920753</v>
+        <v>33535.920752999999</v>
       </c>
       <c r="V19" s="1">
-        <v>9.315534</v>
+        <v>9.3155339999999995</v>
       </c>
       <c r="W19" s="1">
-        <v>955.571000</v>
+        <v>955.57100000000003</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.519000</v>
+        <v>-88.519000000000005</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>33546.466194</v>
+        <v>33546.466194000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>9.318463</v>
+        <v>9.3184629999999995</v>
       </c>
       <c r="AB19" s="1">
-        <v>963.731000</v>
+        <v>963.73099999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.129900</v>
+        <v>-77.129900000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>33556.942200</v>
+        <v>33556.942199999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>9.321373</v>
+        <v>9.3213729999999995</v>
       </c>
       <c r="AG19" s="1">
-        <v>968.762000</v>
+        <v>968.76199999999994</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.012100</v>
+        <v>-75.012100000000004</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>33567.070999</v>
+        <v>33567.070999000003</v>
       </c>
       <c r="AK19" s="1">
-        <v>9.324186</v>
+        <v>9.3241859999999992</v>
       </c>
       <c r="AL19" s="1">
-        <v>976.278000</v>
+        <v>976.27800000000002</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.581100</v>
+        <v>-79.581100000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>33577.934874</v>
+        <v>33577.934873999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>9.327204</v>
+        <v>9.3272040000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>984.471000</v>
+        <v>984.471</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.001200</v>
+        <v>-91.001199999999997</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>33588.689628</v>
       </c>
       <c r="AU19" s="1">
-        <v>9.330192</v>
+        <v>9.3301920000000003</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.361000</v>
+        <v>994.36099999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.475000</v>
+        <v>-108.47499999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>33599.693901</v>
+        <v>33599.693900999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>9.333248</v>
+        <v>9.3332479999999993</v>
       </c>
       <c r="BA19" s="1">
-        <v>1002.600000</v>
+        <v>1002.6</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.057000</v>
+        <v>-124.057</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>33610.406463</v>
+        <v>33610.406462999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>9.336224</v>
+        <v>9.3362239999999996</v>
       </c>
       <c r="BF19" s="1">
-        <v>1040.920000</v>
+        <v>1040.92</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.693000</v>
+        <v>-195.69300000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>33621.364079</v>
+        <v>33621.364078999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>9.339268</v>
+        <v>9.3392680000000006</v>
       </c>
       <c r="BK19" s="1">
-        <v>1106.850000</v>
+        <v>1106.8499999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-312.265000</v>
+        <v>-312.26499999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>33631.834626</v>
+        <v>33631.834626000003</v>
       </c>
       <c r="BO19" s="1">
-        <v>9.342176</v>
+        <v>9.3421760000000003</v>
       </c>
       <c r="BP19" s="1">
-        <v>1213.920000</v>
+        <v>1213.92</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-496.809000</v>
+        <v>-496.80900000000003</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>33642.443059</v>
+        <v>33642.443058999997</v>
       </c>
       <c r="BT19" s="1">
-        <v>9.345123</v>
+        <v>9.3451229999999992</v>
       </c>
       <c r="BU19" s="1">
-        <v>1335.170000</v>
+        <v>1335.17</v>
       </c>
       <c r="BV19" s="1">
-        <v>-699.903000</v>
+        <v>-699.90300000000002</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>33653.757829</v>
+        <v>33653.757829000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>9.348266</v>
+        <v>9.3482660000000006</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1470.510000</v>
+        <v>1470.51</v>
       </c>
       <c r="CA19" s="1">
-        <v>-916.705000</v>
+        <v>-916.70500000000004</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>33666.654312</v>
+        <v>33666.654311999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>9.351848</v>
+        <v>9.3518480000000004</v>
       </c>
       <c r="CE19" s="1">
-        <v>1828.670000</v>
+        <v>1828.67</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1432.540000</v>
+        <v>-1432.54</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>33494.690311</v>
+        <v>33494.690310999998</v>
       </c>
       <c r="B20" s="1">
         <v>9.304081</v>
       </c>
       <c r="C20" s="1">
-        <v>896.921000</v>
+        <v>896.92100000000005</v>
       </c>
       <c r="D20" s="1">
-        <v>-186.841000</v>
+        <v>-186.84100000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>33505.147467</v>
+        <v>33505.147467000003</v>
       </c>
       <c r="G20" s="1">
-        <v>9.306985</v>
+        <v>9.3069849999999992</v>
       </c>
       <c r="H20" s="1">
-        <v>914.269000</v>
+        <v>914.26900000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-161.218000</v>
+        <v>-161.21799999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>33515.630444</v>
+        <v>33515.630444000002</v>
       </c>
       <c r="L20" s="1">
-        <v>9.309897</v>
+        <v>9.3098969999999994</v>
       </c>
       <c r="M20" s="1">
-        <v>939.724000</v>
+        <v>939.72400000000005</v>
       </c>
       <c r="N20" s="1">
-        <v>-117.957000</v>
+        <v>-117.95699999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>33526.203133</v>
+        <v>33526.203133000003</v>
       </c>
       <c r="Q20" s="1">
-        <v>9.312834</v>
+        <v>9.3128340000000005</v>
       </c>
       <c r="R20" s="1">
-        <v>947.762000</v>
+        <v>947.76199999999994</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.801000</v>
+        <v>-102.801</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>33536.343345</v>
+        <v>33536.343345000001</v>
       </c>
       <c r="V20" s="1">
-        <v>9.315651</v>
+        <v>9.3156510000000008</v>
       </c>
       <c r="W20" s="1">
-        <v>955.548000</v>
+        <v>955.548</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.535600</v>
+        <v>-88.535600000000002</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>33546.750899</v>
+        <v>33546.750898999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>9.318542</v>
+        <v>9.3185420000000008</v>
       </c>
       <c r="AB20" s="1">
-        <v>963.737000</v>
+        <v>963.73699999999997</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.146000</v>
+        <v>-77.146000000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>33557.232852</v>
+        <v>33557.232852000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>9.321454</v>
+        <v>9.3214539999999992</v>
       </c>
       <c r="AG20" s="1">
-        <v>968.788000</v>
+        <v>968.78800000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.984700</v>
+        <v>-74.984700000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>33567.418200</v>
+        <v>33567.4182</v>
       </c>
       <c r="AK20" s="1">
-        <v>9.324283</v>
+        <v>9.3242829999999994</v>
       </c>
       <c r="AL20" s="1">
-        <v>976.292000</v>
+        <v>976.29200000000003</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.582700</v>
+        <v>-79.582700000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>33578.296493</v>
+        <v>33578.296493000002</v>
       </c>
       <c r="AP20" s="1">
-        <v>9.327305</v>
+        <v>9.3273050000000008</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.468000</v>
+        <v>984.46799999999996</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.007200</v>
+        <v>-91.007199999999997</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>33589.054186</v>
+        <v>33589.054186000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>9.330293</v>
+        <v>9.3302929999999993</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.347000</v>
+        <v>994.34699999999998</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.481000</v>
+        <v>-108.48099999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>33600.415051</v>
+        <v>33600.415051000004</v>
       </c>
       <c r="AZ20" s="1">
-        <v>9.333449</v>
+        <v>9.3334489999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1002.610000</v>
+        <v>1002.61</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.066000</v>
+        <v>-124.066</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>33611.127149</v>
       </c>
       <c r="BE20" s="1">
-        <v>9.336424</v>
+        <v>9.3364239999999992</v>
       </c>
       <c r="BF20" s="1">
-        <v>1040.920000</v>
+        <v>1040.92</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.678000</v>
+        <v>-195.678</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>33621.738594</v>
+        <v>33621.738594000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>9.339372</v>
+        <v>9.3393719999999991</v>
       </c>
       <c r="BK20" s="1">
-        <v>1106.840000</v>
+        <v>1106.8399999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-312.261000</v>
+        <v>-312.26100000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>33632.257217</v>
+        <v>33632.257216999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>9.342294</v>
+        <v>9.3422940000000008</v>
       </c>
       <c r="BP20" s="1">
-        <v>1213.960000</v>
+        <v>1213.96</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-496.776000</v>
+        <v>-496.77600000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>33642.872100</v>
+        <v>33642.872100000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>9.345242</v>
+        <v>9.3452420000000007</v>
       </c>
       <c r="BU20" s="1">
-        <v>1335.110000</v>
+        <v>1335.11</v>
       </c>
       <c r="BV20" s="1">
-        <v>-699.950000</v>
+        <v>-699.95</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>33654.519187</v>
+        <v>33654.519186999998</v>
       </c>
       <c r="BY20" s="1">
-        <v>9.348478</v>
+        <v>9.3484780000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1470.450000</v>
+        <v>1470.45</v>
       </c>
       <c r="CA20" s="1">
-        <v>-916.688000</v>
+        <v>-916.68799999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>33666.881941</v>
       </c>
       <c r="CD20" s="1">
-        <v>9.351912</v>
+        <v>9.3519120000000004</v>
       </c>
       <c r="CE20" s="1">
-        <v>1828.620000</v>
+        <v>1828.62</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1432.670000</v>
+        <v>-1432.67</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>33495.033046</v>
+        <v>33495.033045999997</v>
       </c>
       <c r="B21" s="1">
         <v>9.304176</v>
       </c>
       <c r="C21" s="1">
-        <v>897.048000</v>
+        <v>897.048</v>
       </c>
       <c r="D21" s="1">
-        <v>-186.863000</v>
+        <v>-186.863</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>33505.491690</v>
+        <v>33505.491690000003</v>
       </c>
       <c r="G21" s="1">
-        <v>9.307081</v>
+        <v>9.3070810000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>914.102000</v>
+        <v>914.10199999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-161.290000</v>
+        <v>-161.29</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>33516.061470</v>
+        <v>33516.061470000001</v>
       </c>
       <c r="L21" s="1">
-        <v>9.310017</v>
+        <v>9.3100170000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>939.828000</v>
+        <v>939.82799999999997</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.018000</v>
+        <v>-118.018</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>33526.634653</v>
+        <v>33526.634653000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>9.312954</v>
+        <v>9.3129539999999995</v>
       </c>
       <c r="R21" s="1">
-        <v>947.815000</v>
+        <v>947.81500000000005</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.806000</v>
+        <v>-102.806</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>33536.624618</v>
+        <v>33536.624618000002</v>
       </c>
       <c r="V21" s="1">
-        <v>9.315729</v>
+        <v>9.3157289999999993</v>
       </c>
       <c r="W21" s="1">
-        <v>955.520000</v>
+        <v>955.52</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.445900</v>
+        <v>-88.445899999999995</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>33547.100578</v>
+        <v>33547.100577999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>9.318639</v>
+        <v>9.3186389999999992</v>
       </c>
       <c r="AB21" s="1">
-        <v>963.738000</v>
+        <v>963.73800000000006</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.141300</v>
+        <v>-77.141300000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>33557.575603</v>
+        <v>33557.575602999997</v>
       </c>
       <c r="AF21" s="1">
-        <v>9.321549</v>
+        <v>9.3215489999999992</v>
       </c>
       <c r="AG21" s="1">
-        <v>968.774000</v>
+        <v>968.774</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.982800</v>
+        <v>-74.982799999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>33567.765927</v>
       </c>
       <c r="AK21" s="1">
-        <v>9.324379</v>
+        <v>9.3243790000000004</v>
       </c>
       <c r="AL21" s="1">
-        <v>976.312000</v>
+        <v>976.31200000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.614100</v>
+        <v>-79.614099999999993</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>33579.020129</v>
+        <v>33579.020128999997</v>
       </c>
       <c r="AP21" s="1">
-        <v>9.327506</v>
+        <v>9.3275059999999996</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.492000</v>
+        <v>984.49199999999996</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.011600</v>
+        <v>-91.011600000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>33589.782313</v>
+        <v>33589.782313000003</v>
       </c>
       <c r="AU21" s="1">
-        <v>9.330495</v>
+        <v>9.3304950000000009</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.360000</v>
+        <v>994.36</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.476000</v>
+        <v>-108.476</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>33600.788703</v>
+        <v>33600.788702999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>9.333552</v>
+        <v>9.3335519999999992</v>
       </c>
       <c r="BA21" s="1">
-        <v>1002.590000</v>
+        <v>1002.59</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.056000</v>
+        <v>-124.056</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>33611.477324</v>
+        <v>33611.477323999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>9.336521</v>
+        <v>9.3365209999999994</v>
       </c>
       <c r="BF21" s="1">
-        <v>1040.910000</v>
+        <v>1040.9100000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.690000</v>
+        <v>-195.69</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>33622.115057</v>
+        <v>33622.115057000003</v>
       </c>
       <c r="BJ21" s="1">
-        <v>9.339476</v>
+        <v>9.3394759999999994</v>
       </c>
       <c r="BK21" s="1">
-        <v>1106.830000</v>
+        <v>1106.83</v>
       </c>
       <c r="BL21" s="1">
-        <v>-312.275000</v>
+        <v>-312.27499999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>33632.961041</v>
+        <v>33632.961041000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>9.342489</v>
+        <v>9.3424890000000005</v>
       </c>
       <c r="BP21" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-496.803000</v>
+        <v>-496.803</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>33643.608660</v>
+        <v>33643.608659999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>9.345447</v>
+        <v>9.3454470000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1335.110000</v>
+        <v>1335.11</v>
       </c>
       <c r="BV21" s="1">
-        <v>-700.033000</v>
+        <v>-700.03300000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>33654.655555</v>
+        <v>33654.655554999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>9.348515</v>
+        <v>9.3485150000000008</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1470.480000</v>
+        <v>1470.48</v>
       </c>
       <c r="CA21" s="1">
-        <v>-916.553000</v>
+        <v>-916.553</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>33667.411668</v>
+        <v>33667.411668000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>9.352059</v>
+        <v>9.3520590000000006</v>
       </c>
       <c r="CE21" s="1">
-        <v>1827.890000</v>
+        <v>1827.89</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1431.550000</v>
+        <v>-1431.55</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>33495.454150</v>
+        <v>33495.454149999998</v>
       </c>
       <c r="B22" s="1">
-        <v>9.304293</v>
+        <v>9.3042929999999995</v>
       </c>
       <c r="C22" s="1">
-        <v>896.911000</v>
+        <v>896.91099999999994</v>
       </c>
       <c r="D22" s="1">
-        <v>-187.066000</v>
+        <v>-187.066</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>33505.908329</v>
+        <v>33505.908328999998</v>
       </c>
       <c r="G22" s="1">
-        <v>9.307197</v>
+        <v>9.3071970000000004</v>
       </c>
       <c r="H22" s="1">
-        <v>914.423000</v>
+        <v>914.423</v>
       </c>
       <c r="I22" s="1">
-        <v>-161.073000</v>
+        <v>-161.07300000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>33516.340682</v>
+        <v>33516.340682000002</v>
       </c>
       <c r="L22" s="1">
-        <v>9.310095</v>
+        <v>9.3100950000000005</v>
       </c>
       <c r="M22" s="1">
-        <v>939.988000</v>
+        <v>939.98800000000006</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.086000</v>
+        <v>-118.086</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>33526.909934</v>
+        <v>33526.909934000003</v>
       </c>
       <c r="Q22" s="1">
-        <v>9.313031</v>
+        <v>9.3130310000000005</v>
       </c>
       <c r="R22" s="1">
-        <v>947.803000</v>
+        <v>947.803</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.787000</v>
+        <v>-102.78700000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>33536.967844</v>
+        <v>33536.967843999999</v>
       </c>
       <c r="V22" s="1">
-        <v>9.315824</v>
+        <v>9.3158239999999992</v>
       </c>
       <c r="W22" s="1">
-        <v>955.558000</v>
+        <v>955.55799999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.508100</v>
+        <v>-88.508099999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>33547.450289</v>
       </c>
       <c r="AA22" s="1">
-        <v>9.318736</v>
+        <v>9.3187359999999995</v>
       </c>
       <c r="AB22" s="1">
-        <v>963.713000</v>
+        <v>963.71299999999997</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.135900</v>
+        <v>-77.135900000000007</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>33557.919348</v>
+        <v>33557.919348000003</v>
       </c>
       <c r="AF22" s="1">
-        <v>9.321644</v>
+        <v>9.3216439999999992</v>
       </c>
       <c r="AG22" s="1">
-        <v>968.788000</v>
+        <v>968.78800000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.005000</v>
+        <v>-75.004999999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>33568.462806</v>
+        <v>33568.462806000003</v>
       </c>
       <c r="AK22" s="1">
-        <v>9.324573</v>
+        <v>9.3245730000000009</v>
       </c>
       <c r="AL22" s="1">
-        <v>976.262000</v>
+        <v>976.26199999999994</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.585200</v>
+        <v>-79.5852</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>33579.397611</v>
       </c>
       <c r="AP22" s="1">
-        <v>9.327610</v>
+        <v>9.32761</v>
       </c>
       <c r="AQ22" s="1">
-        <v>984.450000</v>
+        <v>984.45</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.985400</v>
+        <v>-90.985399999999998</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>33590.175145</v>
+        <v>33590.175145000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>9.330604</v>
+        <v>9.3306039999999992</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.353000</v>
+        <v>994.35299999999995</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.485000</v>
+        <v>-108.485</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>33601.170955</v>
+        <v>33601.170955000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>9.333659</v>
+        <v>9.3336590000000008</v>
       </c>
       <c r="BA22" s="1">
-        <v>1002.600000</v>
+        <v>1002.6</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.051000</v>
+        <v>-124.051</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>33612.157340</v>
+        <v>33612.157339999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>9.336710</v>
+        <v>9.3367100000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1040.930000</v>
+        <v>1040.93</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.693000</v>
+        <v>-195.69300000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>33622.795533</v>
+        <v>33622.795532999997</v>
       </c>
       <c r="BJ22" s="1">
-        <v>9.339665</v>
+        <v>9.3396650000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1106.860000</v>
+        <v>1106.8599999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-312.269000</v>
+        <v>-312.26900000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>33633.074157</v>
+        <v>33633.074157000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>9.342521</v>
+        <v>9.3425209999999996</v>
       </c>
       <c r="BP22" s="1">
-        <v>1213.920000</v>
+        <v>1213.92</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-496.753000</v>
+        <v>-496.75299999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>33643.748034</v>
+        <v>33643.748033999997</v>
       </c>
       <c r="BT22" s="1">
-        <v>9.345486</v>
+        <v>9.3454859999999993</v>
       </c>
       <c r="BU22" s="1">
-        <v>1335.120000</v>
+        <v>1335.12</v>
       </c>
       <c r="BV22" s="1">
-        <v>-700.092000</v>
+        <v>-700.09199999999998</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>33655.077661</v>
+        <v>33655.077661000003</v>
       </c>
       <c r="BY22" s="1">
-        <v>9.348633</v>
+        <v>9.3486329999999995</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1470.470000</v>
+        <v>1470.47</v>
       </c>
       <c r="CA22" s="1">
-        <v>-916.821000</v>
+        <v>-916.82100000000003</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>33667.929490</v>
+        <v>33667.929490000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>9.352203</v>
+        <v>9.3522029999999994</v>
       </c>
       <c r="CE22" s="1">
-        <v>1826.900000</v>
+        <v>1826.9</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1432.560000</v>
+        <v>-1432.56</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>33495.733893</v>
+        <v>33495.733892999997</v>
       </c>
       <c r="B23" s="1">
-        <v>9.304371</v>
+        <v>9.3043709999999997</v>
       </c>
       <c r="C23" s="1">
-        <v>896.761000</v>
+        <v>896.76099999999997</v>
       </c>
       <c r="D23" s="1">
-        <v>-186.935000</v>
+        <v>-186.935</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>33506.188569</v>
+        <v>33506.188568999998</v>
       </c>
       <c r="G23" s="1">
-        <v>9.307275</v>
+        <v>9.3072750000000006</v>
       </c>
       <c r="H23" s="1">
-        <v>914.293000</v>
+        <v>914.29300000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-161.047000</v>
+        <v>-161.047</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>33516.685402</v>
+        <v>33516.685402000003</v>
       </c>
       <c r="L23" s="1">
-        <v>9.310190</v>
+        <v>9.3101900000000004</v>
       </c>
       <c r="M23" s="1">
-        <v>939.853000</v>
+        <v>939.85299999999995</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.004000</v>
+        <v>-118.004</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>33527.257628</v>
+        <v>33527.257627999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>9.313127</v>
+        <v>9.3131269999999997</v>
       </c>
       <c r="R23" s="1">
-        <v>947.791000</v>
+        <v>947.79100000000005</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.836000</v>
+        <v>-102.836</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>33537.311536</v>
+        <v>33537.311536000001</v>
       </c>
       <c r="V23" s="1">
-        <v>9.315920</v>
+        <v>9.3159200000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>955.576000</v>
+        <v>955.57600000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.527800</v>
+        <v>-88.527799999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>33548.147667</v>
+        <v>33548.147666999997</v>
       </c>
       <c r="AA23" s="1">
-        <v>9.318930</v>
+        <v>9.3189299999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>963.729000</v>
+        <v>963.72900000000004</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.120800</v>
+        <v>-77.120800000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>33558.605809</v>
+        <v>33558.605809000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>9.321835</v>
+        <v>9.3218350000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>968.744000</v>
+        <v>968.74400000000003</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.011000</v>
+        <v>-75.010999999999996</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>33568.811957</v>
+        <v>33568.811956999998</v>
       </c>
       <c r="AK23" s="1">
-        <v>9.324670</v>
+        <v>9.3246699999999993</v>
       </c>
       <c r="AL23" s="1">
-        <v>976.285000</v>
+        <v>976.28499999999997</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.586600</v>
+        <v>-79.586600000000004</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>33579.757176</v>
+        <v>33579.757175999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>9.327710</v>
+        <v>9.3277099999999997</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.491000</v>
+        <v>984.49099999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.005100</v>
+        <v>-91.005099999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>33590.538216</v>
+        <v>33590.538216000001</v>
       </c>
       <c r="AU23" s="1">
         <v>9.330705</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.335000</v>
+        <v>994.33500000000004</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.488000</v>
+        <v>-108.488</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>33601.844522</v>
+        <v>33601.844521999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>9.333846</v>
+        <v>9.3338459999999994</v>
       </c>
       <c r="BA23" s="1">
-        <v>1002.620000</v>
+        <v>1002.62</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.049000</v>
+        <v>-124.04900000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>33612.595832</v>
+        <v>33612.595831999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>9.336832</v>
+        <v>9.3368319999999994</v>
       </c>
       <c r="BF23" s="1">
-        <v>1040.920000</v>
+        <v>1040.92</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.681000</v>
+        <v>-195.68100000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>33622.905149</v>
+        <v>33622.905148999998</v>
       </c>
       <c r="BJ23" s="1">
         <v>9.339696</v>
       </c>
       <c r="BK23" s="1">
-        <v>1106.860000</v>
+        <v>1106.8599999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-312.261000</v>
+        <v>-312.26100000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>33633.496225</v>
+        <v>33633.496225000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>9.342638</v>
+        <v>9.3426380000000009</v>
       </c>
       <c r="BP23" s="1">
-        <v>1213.940000</v>
+        <v>1213.94</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-496.792000</v>
+        <v>-496.79199999999997</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>33644.159750</v>
+        <v>33644.159749999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>9.345600</v>
+        <v>9.3455999999999992</v>
       </c>
       <c r="BU23" s="1">
-        <v>1335.100000</v>
+        <v>1335.1</v>
       </c>
       <c r="BV23" s="1">
-        <v>-700.089000</v>
+        <v>-700.08900000000006</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>33655.496770</v>
+        <v>33655.496769999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>9.348749</v>
+        <v>9.3487489999999998</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1470.630000</v>
+        <v>1470.63</v>
       </c>
       <c r="CA23" s="1">
-        <v>-916.771000</v>
+        <v>-916.77099999999996</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>33668.445825</v>
+        <v>33668.445825000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>9.352346</v>
+        <v>9.3523460000000007</v>
       </c>
       <c r="CE23" s="1">
-        <v>1828.130000</v>
+        <v>1828.13</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1433.330000</v>
+        <v>-1433.33</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>33496.075173</v>
+        <v>33496.075172999997</v>
       </c>
       <c r="B24" s="1">
-        <v>9.304465</v>
+        <v>9.3044650000000004</v>
       </c>
       <c r="C24" s="1">
-        <v>896.993000</v>
+        <v>896.99300000000005</v>
       </c>
       <c r="D24" s="1">
-        <v>-186.971000</v>
+        <v>-186.971</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>33506.533288</v>
+        <v>33506.533287999999</v>
       </c>
       <c r="G24" s="1">
-        <v>9.307370</v>
+        <v>9.3073700000000006</v>
       </c>
       <c r="H24" s="1">
-        <v>914.052000</v>
+        <v>914.05200000000002</v>
       </c>
       <c r="I24" s="1">
-        <v>-161.340000</v>
+        <v>-161.34</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>33517.034586</v>
+        <v>33517.034586000002</v>
       </c>
       <c r="L24" s="1">
-        <v>9.310287</v>
+        <v>9.3102870000000006</v>
       </c>
       <c r="M24" s="1">
-        <v>939.634000</v>
+        <v>939.63400000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.046000</v>
+        <v>-118.04600000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>33527.835498</v>
@@ -6180,724 +6596,725 @@
         <v>9.313288</v>
       </c>
       <c r="R24" s="1">
-        <v>947.744000</v>
+        <v>947.74400000000003</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.884000</v>
+        <v>-102.884</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>33537.999023</v>
+        <v>33537.999022999997</v>
       </c>
       <c r="V24" s="1">
-        <v>9.316111</v>
+        <v>9.3161109999999994</v>
       </c>
       <c r="W24" s="1">
-        <v>955.587000</v>
+        <v>955.58699999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.481300</v>
+        <v>-88.481300000000005</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>33548.492352</v>
+        <v>33548.492352000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>9.319026</v>
+        <v>9.3190259999999991</v>
       </c>
       <c r="AB24" s="1">
-        <v>963.706000</v>
+        <v>963.70600000000002</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.132200</v>
+        <v>-77.132199999999997</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>33558.950037</v>
+        <v>33558.950037000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>9.321931</v>
+        <v>9.3219309999999993</v>
       </c>
       <c r="AG24" s="1">
-        <v>968.778000</v>
+        <v>968.77800000000002</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.019600</v>
+        <v>-75.019599999999997</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>33569.161142</v>
+        <v>33569.161141999997</v>
       </c>
       <c r="AK24" s="1">
-        <v>9.324767</v>
+        <v>9.3247669999999996</v>
       </c>
       <c r="AL24" s="1">
-        <v>976.280000</v>
+        <v>976.28</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.591000</v>
+        <v>-79.590999999999994</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>33580.429786</v>
+        <v>33580.429786000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>9.327897</v>
+        <v>9.3278970000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.513000</v>
+        <v>984.51300000000003</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.986100</v>
+        <v>-90.986099999999993</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>33591.214795</v>
       </c>
       <c r="AU24" s="1">
-        <v>9.330893</v>
+        <v>9.3308929999999997</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.356000</v>
+        <v>994.35599999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.511000</v>
+        <v>-108.511</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>33602.254728</v>
       </c>
       <c r="AZ24" s="1">
-        <v>9.333960</v>
+        <v>9.3339599999999994</v>
       </c>
       <c r="BA24" s="1">
-        <v>1002.600000</v>
+        <v>1002.6</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.034000</v>
+        <v>-124.03400000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>33612.960860</v>
+        <v>33612.960859999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>9.336934</v>
+        <v>9.3369339999999994</v>
       </c>
       <c r="BF24" s="1">
-        <v>1040.920000</v>
+        <v>1040.92</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.676000</v>
+        <v>-195.67599999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>33623.272225</v>
+        <v>33623.272225000001</v>
       </c>
       <c r="BJ24" s="1">
         <v>9.339798</v>
       </c>
       <c r="BK24" s="1">
-        <v>1106.850000</v>
+        <v>1106.8499999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-312.249000</v>
+        <v>-312.24900000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>33633.892527</v>
+        <v>33633.892527000004</v>
       </c>
       <c r="BO24" s="1">
-        <v>9.342748</v>
+        <v>9.3427480000000003</v>
       </c>
       <c r="BP24" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-496.817000</v>
+        <v>-496.81700000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>33644.585777</v>
       </c>
       <c r="BT24" s="1">
-        <v>9.345718</v>
+        <v>9.3457179999999997</v>
       </c>
       <c r="BU24" s="1">
-        <v>1334.990000</v>
+        <v>1334.99</v>
       </c>
       <c r="BV24" s="1">
-        <v>-700.144000</v>
+        <v>-700.14400000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>33655.940690</v>
+        <v>33655.940690000003</v>
       </c>
       <c r="BY24" s="1">
-        <v>9.348872</v>
+        <v>9.3488720000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1470.570000</v>
+        <v>1470.57</v>
       </c>
       <c r="CA24" s="1">
-        <v>-916.637000</v>
+        <v>-916.63699999999994</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>33668.968149</v>
       </c>
       <c r="CD24" s="1">
-        <v>9.352491</v>
+        <v>9.3524910000000006</v>
       </c>
       <c r="CE24" s="1">
-        <v>1827.630000</v>
+        <v>1827.63</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1433.360000</v>
+        <v>-1433.36</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>33496.414660</v>
+        <v>33496.414660000002</v>
       </c>
       <c r="B25" s="1">
-        <v>9.304560</v>
+        <v>9.3045600000000004</v>
       </c>
       <c r="C25" s="1">
-        <v>896.895000</v>
+        <v>896.89499999999998</v>
       </c>
       <c r="D25" s="1">
-        <v>-186.880000</v>
+        <v>-186.88</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>33506.874535</v>
+        <v>33506.874535000003</v>
       </c>
       <c r="G25" s="1">
-        <v>9.307465</v>
+        <v>9.3074650000000005</v>
       </c>
       <c r="H25" s="1">
-        <v>914.156000</v>
+        <v>914.15599999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-161.354000</v>
+        <v>-161.35400000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>33517.730505</v>
       </c>
       <c r="L25" s="1">
-        <v>9.310481</v>
+        <v>9.3104809999999993</v>
       </c>
       <c r="M25" s="1">
-        <v>939.712000</v>
+        <v>939.71199999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.046000</v>
+        <v>-118.04600000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>33527.958971</v>
       </c>
       <c r="Q25" s="1">
-        <v>9.313322</v>
+        <v>9.3133219999999994</v>
       </c>
       <c r="R25" s="1">
-        <v>947.722000</v>
+        <v>947.72199999999998</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.861000</v>
+        <v>-102.861</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>33538.343246</v>
+        <v>33538.343245999997</v>
       </c>
       <c r="V25" s="1">
-        <v>9.316206</v>
+        <v>9.3162059999999993</v>
       </c>
       <c r="W25" s="1">
-        <v>955.549000</v>
+        <v>955.54899999999998</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.470600</v>
+        <v>-88.470600000000005</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>33548.845007</v>
+        <v>33548.845007000004</v>
       </c>
       <c r="AA25" s="1">
-        <v>9.319124</v>
+        <v>9.3191240000000004</v>
       </c>
       <c r="AB25" s="1">
-        <v>963.637000</v>
+        <v>963.63699999999994</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.112400</v>
+        <v>-77.112399999999994</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>33559.295218</v>
+        <v>33559.295217999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>9.322026</v>
+        <v>9.3220259999999993</v>
       </c>
       <c r="AG25" s="1">
-        <v>968.781000</v>
+        <v>968.78099999999995</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.003200</v>
+        <v>-75.003200000000007</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>33569.814404</v>
+        <v>33569.814403999997</v>
       </c>
       <c r="AK25" s="1">
-        <v>9.324948</v>
+        <v>9.3249479999999991</v>
       </c>
       <c r="AL25" s="1">
-        <v>976.284000</v>
+        <v>976.28399999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.579900</v>
+        <v>-79.579899999999995</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>33580.841429</v>
       </c>
       <c r="AP25" s="1">
-        <v>9.328012</v>
+        <v>9.3280119999999993</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.502000</v>
+        <v>984.50199999999995</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.985800</v>
+        <v>-90.985799999999998</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>33591.663152</v>
+        <v>33591.663152000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>9.331018</v>
+        <v>9.3310180000000003</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.352000</v>
+        <v>994.35199999999998</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.466000</v>
+        <v>-108.46599999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>33602.627704</v>
+        <v>33602.627703999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>9.334063</v>
+        <v>9.3340630000000004</v>
       </c>
       <c r="BA25" s="1">
-        <v>1002.600000</v>
+        <v>1002.6</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.042000</v>
+        <v>-124.042</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>33613.320994</v>
+        <v>33613.320994000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>9.337034</v>
+        <v>9.3370339999999992</v>
       </c>
       <c r="BF25" s="1">
-        <v>1040.920000</v>
+        <v>1040.92</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.679000</v>
+        <v>-195.679</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>33623.645676</v>
       </c>
       <c r="BJ25" s="1">
-        <v>9.339902</v>
+        <v>9.3399020000000004</v>
       </c>
       <c r="BK25" s="1">
-        <v>1106.830000</v>
+        <v>1106.83</v>
       </c>
       <c r="BL25" s="1">
-        <v>-312.241000</v>
+        <v>-312.24099999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>33634.319103</v>
+        <v>33634.319103000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>9.342866</v>
+        <v>9.3428660000000008</v>
       </c>
       <c r="BP25" s="1">
-        <v>1213.950000</v>
+        <v>1213.95</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-496.828000</v>
+        <v>-496.82799999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>33645.408145</v>
+        <v>33645.408145000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>9.345947</v>
+        <v>9.3459470000000007</v>
       </c>
       <c r="BU25" s="1">
-        <v>1335.070000</v>
+        <v>1335.07</v>
       </c>
       <c r="BV25" s="1">
-        <v>-700.213000</v>
+        <v>-700.21299999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>33656.364313</v>
+        <v>33656.364312999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>9.348990</v>
+        <v>9.3489900000000006</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1470.480000</v>
+        <v>1470.48</v>
       </c>
       <c r="CA25" s="1">
-        <v>-916.669000</v>
+        <v>-916.66899999999998</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>33669.519665</v>
       </c>
       <c r="CD25" s="1">
-        <v>9.352644</v>
+        <v>9.3526439999999997</v>
       </c>
       <c r="CE25" s="1">
-        <v>1827.150000</v>
+        <v>1827.15</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1432.340000</v>
+        <v>-1432.34</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>33497.097892</v>
+        <v>33497.097891999998</v>
       </c>
       <c r="B26" s="1">
-        <v>9.304749</v>
+        <v>9.3047489999999993</v>
       </c>
       <c r="C26" s="1">
-        <v>897.002000</v>
+        <v>897.00199999999995</v>
       </c>
       <c r="D26" s="1">
-        <v>-186.822000</v>
+        <v>-186.822</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>33507.566454</v>
       </c>
       <c r="G26" s="1">
-        <v>9.307657</v>
+        <v>9.3076570000000007</v>
       </c>
       <c r="H26" s="1">
-        <v>914.370000</v>
+        <v>914.37</v>
       </c>
       <c r="I26" s="1">
-        <v>-161.129000</v>
+        <v>-161.12899999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>33518.080190</v>
+        <v>33518.080190000001</v>
       </c>
       <c r="L26" s="1">
-        <v>9.310578</v>
+        <v>9.3105779999999996</v>
       </c>
       <c r="M26" s="1">
-        <v>939.810000</v>
+        <v>939.81</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.087000</v>
+        <v>-118.087</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>33528.304219</v>
+        <v>33528.304218999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>9.313418</v>
+        <v>9.3134180000000004</v>
       </c>
       <c r="R26" s="1">
-        <v>947.750000</v>
+        <v>947.75</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.825000</v>
+        <v>-102.825</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>33538.686481</v>
+        <v>33538.686480999997</v>
       </c>
       <c r="V26" s="1">
-        <v>9.316302</v>
+        <v>9.3163020000000003</v>
       </c>
       <c r="W26" s="1">
-        <v>955.579000</v>
+        <v>955.57899999999995</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.508000</v>
+        <v>-88.507999999999996</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>33549.501246</v>
       </c>
       <c r="AA26" s="1">
-        <v>9.319306</v>
+        <v>9.3193059999999992</v>
       </c>
       <c r="AB26" s="1">
-        <v>963.683000</v>
+        <v>963.68299999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.102600</v>
+        <v>-77.102599999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>33559.972753</v>
+        <v>33559.972753000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>9.322215</v>
+        <v>9.3222149999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>968.779000</v>
+        <v>968.779</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.004900</v>
+        <v>-75.004900000000006</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>33570.210180</v>
+        <v>33570.210180000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>9.325058</v>
+        <v>9.3250580000000003</v>
       </c>
       <c r="AL26" s="1">
-        <v>976.273000</v>
+        <v>976.27300000000002</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.571500</v>
+        <v>-79.5715</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>33581.220372</v>
+        <v>33581.220372000003</v>
       </c>
       <c r="AP26" s="1">
-        <v>9.328117</v>
+        <v>9.3281170000000007</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.516000</v>
+        <v>984.51599999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.982500</v>
+        <v>-90.982500000000002</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>33592.029686</v>
+        <v>33592.029686000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>9.331119</v>
+        <v>9.3311189999999993</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.349000</v>
+        <v>994.34900000000005</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.508000</v>
+        <v>-108.508</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>33603.008137</v>
+        <v>33603.008136999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>9.334169</v>
+        <v>9.3341689999999993</v>
       </c>
       <c r="BA26" s="1">
-        <v>1002.610000</v>
+        <v>1002.61</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.075000</v>
+        <v>-124.075</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>33613.736105</v>
+        <v>33613.736105000004</v>
       </c>
       <c r="BE26" s="1">
-        <v>9.337149</v>
+        <v>9.3371490000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1040.920000</v>
+        <v>1040.92</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.690000</v>
+        <v>-195.69</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>33624.062317</v>
+        <v>33624.062317000004</v>
       </c>
       <c r="BJ26" s="1">
-        <v>9.340017</v>
+        <v>9.3400169999999996</v>
       </c>
       <c r="BK26" s="1">
-        <v>1106.870000</v>
+        <v>1106.8699999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-312.259000</v>
+        <v>-312.25900000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>33634.716910</v>
+        <v>33634.716910000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>9.342977</v>
+        <v>9.3429769999999994</v>
       </c>
       <c r="BP26" s="1">
-        <v>1213.940000</v>
+        <v>1213.94</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-496.756000</v>
+        <v>-496.75599999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>33645.846111</v>
+        <v>33645.846110999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>9.346068</v>
+        <v>9.3460680000000007</v>
       </c>
       <c r="BU26" s="1">
-        <v>1334.980000</v>
+        <v>1334.98</v>
       </c>
       <c r="BV26" s="1">
-        <v>-700.203000</v>
+        <v>-700.20299999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>33656.787364</v>
+        <v>33656.787364000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>9.349108</v>
+        <v>9.3491079999999993</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1470.430000</v>
+        <v>1470.43</v>
       </c>
       <c r="CA26" s="1">
-        <v>-916.627000</v>
+        <v>-916.62699999999995</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>33670.047439</v>
+        <v>33670.047439000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>9.352791</v>
+        <v>9.3527909999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1828.120000</v>
+        <v>1828.12</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1433.080000</v>
+        <v>-1433.08</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>